--- a/giorgia/filtering_DH_institutions_from_links.xlsx
+++ b/giorgia/filtering_DH_institutions_from_links.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crosi\Documents\GitHub\Vita-e-morte-DH-projects\giorgia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAD085F-6C4B-42A5-A355-D849E121FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19845F3A-7F9E-4D4C-B6C8-DD0F50B1DE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11686" windowHeight="13763" xr2:uid="{DA4FCA1B-1D56-46B8-9FAB-A51998706F66}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{DA4FCA1B-1D56-46B8-9FAB-A51998706F66}"/>
   </bookViews>
   <sheets>
     <sheet name="dh_projects_results" sheetId="2" r:id="rId1"/>
     <sheet name="Foglio1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">dh_projects_results!$A$2:$E$207</definedName>
+    <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">dh_projects_results!$A$2:$E$204</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="399">
   <si>
     <t>categoria</t>
   </si>
@@ -434,24 +434,12 @@
     <t>Milano</t>
   </si>
   <si>
-    <t>unicatt.it</t>
-  </si>
-  <si>
-    <t>https://centridiricerca.unicatt.it/circse/it.html</t>
-  </si>
-  <si>
     <t>index thomisticus treebank</t>
   </si>
   <si>
-    <t>https://centridiricerca.unicatt.it/circse/it/progetti/index-thomisticus-treebank.html</t>
-  </si>
-  <si>
     <t>word formation latin</t>
   </si>
   <si>
-    <t>https://centridiricerca.unicatt.it/circse/it/progetti/word-formation-latin.html</t>
-  </si>
-  <si>
     <t>coreflat</t>
   </si>
   <si>
@@ -462,24 +450,6 @@
   </si>
   <si>
     <t>https://centridiricerca.unicatt.it/circse/it/progetti/moLor.html</t>
-  </si>
-  <si>
-    <t>perseus digital library</t>
-  </si>
-  <si>
-    <t>http://www.perseus.tufts.edu/hopper/</t>
-  </si>
-  <si>
-    <t>university of oslo: proiel corpus</t>
-  </si>
-  <si>
-    <t>https://www.hf.uio.no/ifikk/english/research/projects/proiel/</t>
-  </si>
-  <si>
-    <t>göttingen centre for digital humanities (germany)</t>
-  </si>
-  <si>
-    <t>http://www.gcdh.de/en/</t>
   </si>
   <si>
     <t>Centro di Informatica Umanistica - Università degli Studi di Catania</t>
@@ -567,9 +537,6 @@
 					dante’s commedia was illuminated almost as soon as it came into circulation. centuries of readers and editors have been fascinated by the poem’s visua...</t>
   </si>
   <si>
-    <t>https://www.khi.fi.it/en/forschung/digital-humanities/dante-depicted.php</t>
-  </si>
-  <si>
     <t>aby warburg's florence				
 					the app aby warburg’s florence (available on the apple app store and google play store) invites the user to follow three itineraries, exploring unexpe...</t>
   </si>
@@ -581,9 +548,6 @@
 					digital solutions provide new ways to create meaningful online exhibitions. the khi is developing a digital repository to host exhibitions of photogra...</t>
   </si>
   <si>
-    <t>https://www.khi.fi.it/en/forschung/digital-humanities/gigapixel-images.php</t>
-  </si>
-  <si>
     <t>connecting the khi digital resources				
 					the aim of this project is to devise linked data based solutions to create a semantic platform that enables scholars to ask research questions in a mo...</t>
   </si>
@@ -602,16 +566,10 @@
 					the research project on the churches of siena (die kirchen von siena) was established by peter anselm riedl and max seidel with the aim of studying th...</t>
   </si>
   <si>
-    <t>https://www.khi.fi.it/en/forschung/digital-humanities/digitizing-the-die-kirchen-von-siena-project.php</t>
-  </si>
-  <si>
     <t>virtual repository of photographers' sales catalogues				
 					catalogues edited by photographers and photographic companies are an important source when dealing with photographs. they not only provide an overview...</t>
   </si>
   <si>
-    <t>https://www.khi.fi.it/en/forschung/digital-humanities/virtual-repository-of-photographers-sales-catalogues.php</t>
-  </si>
-  <si>
     <t>khi digital humanities microservices environment				
 					the project focuses on developing a new process in the workflow of digital humanities studies by integrating them with well-known concepts from comput...</t>
   </si>
@@ -655,12 +613,6 @@
     <t>https://dh.fbk.eu/2013/06/alcide-analysis-of-language-and-content-in-a-digital-environment/</t>
   </si>
   <si>
-    <t>21st conference on information and research science connecting to digital and library science</t>
-  </si>
-  <si>
-    <t>https://dh.fbk.eu/2024/10/ircdl2025/</t>
-  </si>
-  <si>
     <t>CNR</t>
   </si>
   <si>
@@ -1184,13 +1136,130 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.parthenos-project.eu/ </t>
+  </si>
+  <si>
+    <t>metodologie per archiviazione</t>
+  </si>
+  <si>
+    <t>edizione digitale</t>
+  </si>
+  <si>
+    <t>metodologie per archiviazione = cross</t>
+  </si>
+  <si>
+    <t>https://lila-erc.eu/#page-top</t>
+  </si>
+  <si>
+    <t>Building a Knowledge Base of Linguistic Resources for Latin</t>
+  </si>
+  <si>
+    <t>lila</t>
+  </si>
+  <si>
+    <t>https://itreebank.marginalia.it/</t>
+  </si>
+  <si>
+    <t>availability of advanced language resources for latin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://wfl.marginalia.it </t>
+  </si>
+  <si>
+    <t>lessico basato su formazione delle parole latine</t>
+  </si>
+  <si>
+    <t>http://www.lemlat3.eu/</t>
+  </si>
+  <si>
+    <t>analizzatore morfologico per latino</t>
+  </si>
+  <si>
+    <t>non c'è un sito dedicato, solo una pagina di descrizione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archivio lessicografico </t>
+  </si>
+  <si>
+    <t>archivio testuale</t>
+  </si>
+  <si>
+    <t>edizioni digitali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edizione digitale </t>
+  </si>
+  <si>
+    <t>sito di presentazione del progetto in realtà aumentata</t>
+  </si>
+  <si>
+    <t>https://dante.khi.fi.it/</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>digital repository of exhibitions</t>
+  </si>
+  <si>
+    <t>https://virtualphotothek.khi.fi.it/gigapixel/</t>
+  </si>
+  <si>
+    <t>tool penso</t>
+  </si>
+  <si>
+    <t>pagina di descrizione del progetto, no sito</t>
+  </si>
+  <si>
+    <t>https://sienaproject.khi.fi.it/</t>
+  </si>
+  <si>
+    <t>phttps://virtualphotothek.khi.fi.it/catalogues/publisher</t>
+  </si>
+  <si>
+    <t>digital catalogue</t>
+  </si>
+  <si>
+    <t>https://aicode-project.eu/</t>
+  </si>
+  <si>
+    <t>tool which uses AI to make EU environments safer</t>
+  </si>
+  <si>
+    <t>https://www.standbymeproject.eu/</t>
+  </si>
+  <si>
+    <t>online courses (gender based violence)</t>
+  </si>
+  <si>
+    <t>no site</t>
+  </si>
+  <si>
+    <t>http://www.simpatico-project.eu/</t>
+  </si>
+  <si>
+    <t>SIMplifying the interaction with Public Administration Through Information technology for Citizens and Companies</t>
+  </si>
+  <si>
+    <t>sito strano</t>
+  </si>
+  <si>
+    <t>http://www.verbovisualevirtuale.org/</t>
+  </si>
+  <si>
+    <t>https://alcidedigitale.fbk.eu/</t>
+  </si>
+  <si>
+    <t>automatic analysis of dcouments</t>
+  </si>
+  <si>
+    <t>aggiungere altri progetti fbk dalla pagina https://dh.fbk.eu/category/projects/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,6 +1271,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1237,11 +1314,11 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1298,7 +1375,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57717B0A-9DF8-4DBF-BAA5-A44778F74D89}" name="dh_projects_results" displayName="dh_projects_results" ref="A2:F207" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57717B0A-9DF8-4DBF-BAA5-A44778F74D89}" name="dh_projects_results" displayName="dh_projects_results" ref="A2:F204" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EAF395AC-1F7E-4A26-B723-623AEA8DE48F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{EF1A7B80-882D-443F-8E97-789F777887A2}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="4"/>
@@ -1628,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A0B48E-5133-44BB-8BE0-59B26DE9E52C}">
-  <dimension ref="A2:F207"/>
+  <dimension ref="A2:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1659,8 +1736,8 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>318</v>
+      <c r="F2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1676,11 +1753,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>326</v>
+      <c r="E3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1696,11 +1773,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>330</v>
+      <c r="F4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1714,13 +1791,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>321</v>
+        <v>306</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1739,8 +1816,8 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>323</v>
+      <c r="F6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1759,8 +1836,8 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>324</v>
+      <c r="F7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1770,17 +1847,17 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>327</v>
+      <c r="D8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1799,8 +1876,8 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>325</v>
+      <c r="F9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1814,13 +1891,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>336</v>
+        <v>315</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1834,13 +1911,13 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>335</v>
+        <v>318</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1856,11 +1933,11 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>337</v>
+      <c r="F12" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1879,8 +1956,8 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>338</v>
+      <c r="F13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1899,8 +1976,8 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>339</v>
+      <c r="F14" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1919,8 +1996,8 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>339</v>
+      <c r="F15" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1933,14 +2010,14 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>341</v>
+      <c r="D16" t="s">
+        <v>325</v>
       </c>
       <c r="E16" t="s">
-        <v>343</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>342</v>
+        <v>327</v>
+      </c>
+      <c r="F16" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1959,8 +2036,8 @@
       <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>340</v>
+      <c r="F17" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1979,8 +2056,8 @@
       <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>344</v>
+      <c r="F18" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1999,8 +2076,8 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>345</v>
+      <c r="F19" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -2019,8 +2096,8 @@
       <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>346</v>
+      <c r="F20" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -2039,8 +2116,8 @@
       <c r="E21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>347</v>
+      <c r="F21" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -2054,13 +2131,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E22" t="s">
-        <v>350</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>325</v>
+        <v>334</v>
+      </c>
+      <c r="F22" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -2080,7 +2157,7 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -2099,8 +2176,8 @@
       <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>348</v>
+      <c r="F24" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -2119,7 +2196,6 @@
       <c r="E25" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
@@ -2131,14 +2207,14 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>351</v>
+      <c r="D26" t="s">
+        <v>335</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>353</v>
+        <v>336</v>
+      </c>
+      <c r="F26" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -2157,8 +2233,8 @@
       <c r="E27" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>325</v>
+      <c r="F27" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -2174,11 +2250,11 @@
       <c r="D28" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>354</v>
+      <c r="F28" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -2194,11 +2270,11 @@
       <c r="D29" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>355</v>
+      <c r="F29" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -2214,10 +2290,9 @@
       <c r="D30" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
@@ -2232,11 +2307,11 @@
       <c r="D31" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>356</v>
+      <c r="F31" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -2252,11 +2327,11 @@
       <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>355</v>
+      <c r="F32" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -2272,11 +2347,11 @@
       <c r="D33" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>357</v>
+      <c r="F33" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -2292,11 +2367,11 @@
       <c r="D34" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>356</v>
+      <c r="F34" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -2312,11 +2387,11 @@
       <c r="D35" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>359</v>
+      <c r="E35" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F35" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -2332,11 +2407,11 @@
       <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>361</v>
+      <c r="E36" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F36" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -2352,11 +2427,11 @@
       <c r="D37" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>362</v>
+      <c r="E37" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F37" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2372,10 +2447,9 @@
       <c r="D38" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
@@ -2390,11 +2464,11 @@
       <c r="D39" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>364</v>
+      <c r="E39" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F39" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -2410,11 +2484,11 @@
       <c r="D40" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>367</v>
+      <c r="E40" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F40" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -2430,11 +2504,11 @@
       <c r="D41" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>339</v>
+      <c r="F41" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -2450,10 +2524,9 @@
       <c r="D42" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
@@ -2468,10 +2541,9 @@
       <c r="D43" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
@@ -2486,11 +2558,11 @@
       <c r="D44" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>368</v>
+      <c r="F44" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -2506,10 +2578,9 @@
       <c r="D45" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
@@ -2524,10 +2595,9 @@
       <c r="D46" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
@@ -2542,10 +2612,9 @@
       <c r="D47" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
@@ -2560,10 +2629,9 @@
       <c r="D48" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
@@ -2578,16 +2646,15 @@
       <c r="D49" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>85</v>
       </c>
       <c r="C50" t="s">
@@ -2596,11 +2663,11 @@
       <c r="D50" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>370</v>
+      <c r="E50" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2616,11 +2683,11 @@
       <c r="D51" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>372</v>
+      <c r="E51" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F51" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2636,11 +2703,11 @@
       <c r="D52" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>374</v>
+      <c r="E52" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F52" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2656,10 +2723,9 @@
       <c r="D53" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F53" s="3"/>
+      <c r="E53" s="2" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
@@ -2677,7 +2743,6 @@
       <c r="E54" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
@@ -2695,7 +2760,6 @@
       <c r="E55" t="s">
         <v>94</v>
       </c>
-      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
@@ -2713,7 +2777,6 @@
       <c r="E56" t="s">
         <v>96</v>
       </c>
-      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
@@ -2731,7 +2794,6 @@
       <c r="E57" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
@@ -2749,7 +2811,6 @@
       <c r="E58" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
@@ -2767,7 +2828,6 @@
       <c r="E59" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
@@ -2785,7 +2845,6 @@
       <c r="E60" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
@@ -2803,7 +2862,6 @@
       <c r="E61" t="s">
         <v>106</v>
       </c>
-      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
@@ -2821,7 +2879,6 @@
       <c r="E62" t="s">
         <v>108</v>
       </c>
-      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
@@ -2839,7 +2896,6 @@
       <c r="E63" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
@@ -2857,7 +2913,6 @@
       <c r="E64" t="s">
         <v>112</v>
       </c>
-      <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
@@ -2872,10 +2927,12 @@
       <c r="D65" t="s">
         <v>116</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F65" s="3"/>
+      <c r="F65" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
@@ -2890,10 +2947,12 @@
       <c r="D66" t="s">
         <v>116</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F66" s="3"/>
+      <c r="F66" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
@@ -2911,7 +2970,9 @@
       <c r="E67" t="s">
         <v>118</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
@@ -2926,10 +2987,9 @@
       <c r="D68" t="s">
         <v>116</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
@@ -2947,7 +3007,6 @@
       <c r="E69" t="s">
         <v>120</v>
       </c>
-      <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
@@ -2962,10 +3021,12 @@
       <c r="D70" t="s">
         <v>116</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F70" s="3"/>
+      <c r="F70" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
@@ -2980,10 +3041,12 @@
       <c r="D71" t="s">
         <v>116</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
@@ -3001,7 +3064,9 @@
       <c r="E72" t="s">
         <v>123</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
@@ -3016,10 +3081,9 @@
       <c r="D73" t="s">
         <v>116</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
@@ -3034,10 +3098,9 @@
       <c r="D74" t="s">
         <v>116</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
@@ -3050,12 +3113,14 @@
         <v>127</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" s="3"/>
+        <v>365</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
@@ -3068,30 +3133,26 @@
         <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" t="s">
-        <v>131</v>
-      </c>
-      <c r="F76" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F76" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77" t="s">
-        <v>132</v>
-      </c>
-      <c r="E77" t="s">
-        <v>133</v>
-      </c>
-      <c r="F77" s="3"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
@@ -3104,12 +3165,14 @@
         <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" t="s">
-        <v>135</v>
-      </c>
-      <c r="F78" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F78" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
@@ -3122,12 +3185,14 @@
         <v>127</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" t="s">
-        <v>137</v>
-      </c>
-      <c r="F79" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
@@ -3140,1519 +3205,1520 @@
         <v>127</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" t="s">
-        <v>141</v>
-      </c>
-      <c r="F81" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" t="s">
-        <v>143</v>
-      </c>
-      <c r="F82" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s">
-        <v>147</v>
-      </c>
-      <c r="E83" t="s">
-        <v>146</v>
-      </c>
-      <c r="F83" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
-        <v>147</v>
-      </c>
-      <c r="E84" t="s">
-        <v>148</v>
-      </c>
-      <c r="F84" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F85" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>5</v>
       </c>
       <c r="B86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" t="s">
         <v>144</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D86" t="s">
-        <v>147</v>
-      </c>
-      <c r="E86" t="s">
-        <v>150</v>
-      </c>
-      <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D87" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E87" t="s">
-        <v>151</v>
-      </c>
-      <c r="F87" s="3"/>
+      <c r="F87" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D88" t="s">
-        <v>154</v>
-      </c>
-      <c r="E88" t="s">
-        <v>155</v>
-      </c>
-      <c r="F88" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D89" t="s">
-        <v>156</v>
-      </c>
-      <c r="E89" t="s">
-        <v>157</v>
-      </c>
-      <c r="F89" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>5</v>
       </c>
       <c r="B90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" t="s">
         <v>152</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D90" t="s">
-        <v>158</v>
-      </c>
-      <c r="E90" t="s">
-        <v>159</v>
-      </c>
-      <c r="F90" s="3"/>
+      <c r="F90" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
-        <v>160</v>
-      </c>
-      <c r="E91" t="s">
-        <v>161</v>
-      </c>
-      <c r="F91" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
-      </c>
-      <c r="E92" t="s">
-        <v>163</v>
-      </c>
-      <c r="F92" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D93" t="s">
-        <v>164</v>
-      </c>
-      <c r="E93" t="s">
-        <v>165</v>
-      </c>
-      <c r="F93" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F93" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
-      </c>
-      <c r="E94" t="s">
-        <v>167</v>
-      </c>
-      <c r="F94" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D95" t="s">
-        <v>171</v>
-      </c>
-      <c r="E95" t="s">
-        <v>172</v>
-      </c>
-      <c r="F95" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F95" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F96" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" t="s">
+        <v>167</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B96" t="s">
+      <c r="F97" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" t="s">
+        <v>159</v>
+      </c>
+      <c r="C98" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" t="s">
         <v>169</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E98" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F98" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" t="s">
         <v>170</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E99" t="s">
+        <v>385</v>
+      </c>
+      <c r="F99" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" t="s">
+        <v>160</v>
+      </c>
+      <c r="D100" t="s">
+        <v>171</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" t="s">
+        <v>160</v>
+      </c>
+      <c r="D101" t="s">
         <v>173</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E101" t="s">
         <v>174</v>
       </c>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>168</v>
-      </c>
-      <c r="B97" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" t="s">
-        <v>170</v>
-      </c>
-      <c r="D97" t="s">
-        <v>175</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F101" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" t="s">
         <v>176</v>
       </c>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" t="s">
-        <v>170</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C102" t="s">
         <v>177</v>
       </c>
-      <c r="E98" t="s">
+      <c r="D102" t="s">
         <v>178</v>
       </c>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>168</v>
-      </c>
-      <c r="B99" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" t="s">
-        <v>170</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E102" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F102" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" t="s">
+        <v>177</v>
+      </c>
+      <c r="D103" t="s">
         <v>179</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E103" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F103" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" t="s">
+        <v>177</v>
+      </c>
+      <c r="D104" t="s">
         <v>180</v>
       </c>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>168</v>
-      </c>
-      <c r="B100" t="s">
-        <v>169</v>
-      </c>
-      <c r="C100" t="s">
-        <v>170</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E104" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C105" t="s">
+        <v>177</v>
+      </c>
+      <c r="D105" t="s">
         <v>181</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E105" t="s">
+        <v>181</v>
+      </c>
+      <c r="F105" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" t="s">
+        <v>176</v>
+      </c>
+      <c r="C106" t="s">
+        <v>177</v>
+      </c>
+      <c r="D106" t="s">
         <v>182</v>
       </c>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>168</v>
-      </c>
-      <c r="B101" t="s">
-        <v>169</v>
-      </c>
-      <c r="C101" t="s">
-        <v>170</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E106" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F106" t="s">
+        <v>393</v>
+      </c>
+      <c r="I106" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" t="s">
         <v>183</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E107" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F107" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" t="s">
+        <v>176</v>
+      </c>
+      <c r="C108" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" t="s">
         <v>184</v>
       </c>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>168</v>
-      </c>
-      <c r="B102" t="s">
-        <v>169</v>
-      </c>
-      <c r="C102" t="s">
-        <v>170</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E108" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F108" t="s">
+        <v>397</v>
+      </c>
+      <c r="H108" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
         <v>185</v>
       </c>
-      <c r="E102" t="s">
+      <c r="B109" t="s">
         <v>186</v>
       </c>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>168</v>
-      </c>
-      <c r="B103" t="s">
-        <v>169</v>
-      </c>
-      <c r="C103" t="s">
-        <v>170</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C109" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" t="s">
         <v>187</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E109" t="s">
         <v>188</v>
       </c>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>168</v>
-      </c>
-      <c r="B104" t="s">
-        <v>190</v>
-      </c>
-      <c r="C104" t="s">
-        <v>191</v>
-      </c>
-      <c r="D104" t="s">
-        <v>192</v>
-      </c>
-      <c r="E104" t="s">
-        <v>192</v>
-      </c>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>168</v>
-      </c>
-      <c r="B105" t="s">
-        <v>190</v>
-      </c>
-      <c r="C105" t="s">
-        <v>191</v>
-      </c>
-      <c r="D105" t="s">
-        <v>193</v>
-      </c>
-      <c r="E105" t="s">
-        <v>193</v>
-      </c>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>168</v>
-      </c>
-      <c r="B106" t="s">
-        <v>190</v>
-      </c>
-      <c r="C106" t="s">
-        <v>191</v>
-      </c>
-      <c r="D106" t="s">
-        <v>194</v>
-      </c>
-      <c r="E106" t="s">
-        <v>194</v>
-      </c>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" t="s">
-        <v>191</v>
-      </c>
-      <c r="D107" t="s">
-        <v>195</v>
-      </c>
-      <c r="E107" t="s">
-        <v>195</v>
-      </c>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>168</v>
-      </c>
-      <c r="B108" t="s">
-        <v>190</v>
-      </c>
-      <c r="C108" t="s">
-        <v>191</v>
-      </c>
-      <c r="D108" t="s">
-        <v>196</v>
-      </c>
-      <c r="E108" t="s">
-        <v>196</v>
-      </c>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>168</v>
-      </c>
-      <c r="B109" t="s">
-        <v>190</v>
-      </c>
-      <c r="C109" t="s">
-        <v>191</v>
-      </c>
-      <c r="D109" t="s">
-        <v>197</v>
-      </c>
-      <c r="E109" t="s">
-        <v>197</v>
-      </c>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="D110" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B111" t="s">
         <v>190</v>
       </c>
       <c r="C111" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" t="s">
         <v>191</v>
       </c>
-      <c r="D111" t="s">
-        <v>199</v>
-      </c>
       <c r="E111" t="s">
-        <v>200</v>
-      </c>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C112" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D112" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E112" t="s">
-        <v>204</v>
-      </c>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C113" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D113" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E113" t="s">
-        <v>205</v>
-      </c>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C114" t="s">
         <v>58</v>
       </c>
       <c r="D114" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E114" t="s">
-        <v>208</v>
-      </c>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C115" t="s">
         <v>58</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E115" t="s">
-        <v>210</v>
-      </c>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C116" t="s">
         <v>58</v>
       </c>
       <c r="D116" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E116" t="s">
-        <v>212</v>
-      </c>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B117" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C117" t="s">
         <v>58</v>
       </c>
       <c r="D117" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E117" t="s">
-        <v>214</v>
-      </c>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B118" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
         <v>58</v>
       </c>
       <c r="D118" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E118" t="s">
-        <v>215</v>
-      </c>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s">
         <v>58</v>
       </c>
       <c r="D119" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
-      </c>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C120" t="s">
         <v>58</v>
       </c>
       <c r="D120" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E120" t="s">
-        <v>219</v>
-      </c>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C121" t="s">
         <v>58</v>
       </c>
       <c r="D121" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E121" t="s">
-        <v>220</v>
-      </c>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B122" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C122" t="s">
         <v>58</v>
       </c>
       <c r="D122" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
-      </c>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B123" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C123" t="s">
         <v>58</v>
       </c>
       <c r="D123" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E123" t="s">
-        <v>222</v>
-      </c>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C124" t="s">
         <v>58</v>
       </c>
       <c r="D124" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E124" t="s">
-        <v>224</v>
-      </c>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C125" t="s">
         <v>58</v>
       </c>
       <c r="D125" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E125" t="s">
-        <v>226</v>
-      </c>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C126" t="s">
         <v>58</v>
       </c>
       <c r="D126" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E126" t="s">
-        <v>228</v>
-      </c>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C127" t="s">
         <v>58</v>
       </c>
       <c r="D127" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
-      </c>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C128" t="s">
         <v>58</v>
       </c>
       <c r="D128" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E128" t="s">
-        <v>230</v>
-      </c>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C129" t="s">
         <v>58</v>
       </c>
       <c r="D129" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E129" t="s">
-        <v>232</v>
-      </c>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C130" t="s">
         <v>58</v>
       </c>
       <c r="D130" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E130" t="s">
-        <v>233</v>
-      </c>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C131" t="s">
         <v>58</v>
       </c>
       <c r="D131" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
-      </c>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B132" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C132" t="s">
         <v>58</v>
       </c>
       <c r="D132" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E132" t="s">
-        <v>236</v>
-      </c>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C133" t="s">
         <v>58</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E133" t="s">
-        <v>237</v>
-      </c>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C134" t="s">
         <v>58</v>
       </c>
       <c r="D134" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E134" t="s">
-        <v>239</v>
-      </c>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C135" t="s">
         <v>58</v>
       </c>
       <c r="D135" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E135" t="s">
-        <v>241</v>
-      </c>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B136" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
         <v>58</v>
       </c>
       <c r="D136" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E136" t="s">
-        <v>242</v>
-      </c>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B137" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s">
         <v>58</v>
       </c>
       <c r="D137" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E137" t="s">
-        <v>243</v>
-      </c>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B138" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C138" t="s">
         <v>58</v>
       </c>
       <c r="D138" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E138" t="s">
-        <v>244</v>
-      </c>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
         <v>58</v>
       </c>
       <c r="D139" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E139" t="s">
-        <v>245</v>
-      </c>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C140" t="s">
         <v>58</v>
       </c>
       <c r="D140" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E140" t="s">
-        <v>247</v>
-      </c>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B141" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C141" t="s">
         <v>58</v>
       </c>
       <c r="D141" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E141" t="s">
-        <v>248</v>
-      </c>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B142" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C142" t="s">
         <v>58</v>
       </c>
       <c r="D142" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E142" t="s">
-        <v>250</v>
-      </c>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C143" t="s">
         <v>58</v>
       </c>
       <c r="D143" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E143" t="s">
-        <v>251</v>
-      </c>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B144" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C144" t="s">
         <v>58</v>
       </c>
       <c r="D144" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E144" t="s">
-        <v>252</v>
-      </c>
-      <c r="F144" s="3"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C145" t="s">
         <v>58</v>
       </c>
       <c r="D145" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E145" t="s">
-        <v>253</v>
-      </c>
-      <c r="F145" s="3"/>
+        <v>241</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B146" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C146" t="s">
         <v>58</v>
       </c>
       <c r="D146" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E146" t="s">
-        <v>254</v>
-      </c>
-      <c r="F146" s="3"/>
+        <v>242</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B147" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C147" t="s">
         <v>58</v>
       </c>
       <c r="D147" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E147" t="s">
-        <v>255</v>
-      </c>
-      <c r="F147" s="3"/>
+        <v>243</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C148" t="s">
-        <v>58</v>
-      </c>
-      <c r="D148" t="s">
-        <v>256</v>
-      </c>
-      <c r="E148" t="s">
-        <v>257</v>
-      </c>
-      <c r="F148" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C149" t="s">
-        <v>58</v>
-      </c>
-      <c r="D149" t="s">
-        <v>258</v>
-      </c>
-      <c r="E149" t="s">
-        <v>258</v>
-      </c>
-      <c r="F149" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C150" t="s">
-        <v>58</v>
-      </c>
-      <c r="D150" t="s">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="E150" t="s">
-        <v>259</v>
-      </c>
-      <c r="F150" s="3"/>
+        <v>257</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B151" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C151" t="s">
         <v>66</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F151" s="1"/>
+      <c r="E151" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C152" t="s">
         <v>66</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C153" t="s">
         <v>66</v>
       </c>
-      <c r="E153" t="s">
-        <v>273</v>
-      </c>
-      <c r="F153" s="3"/>
+      <c r="E153" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F153" s="1"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C154" t="s">
         <v>66</v>
       </c>
-      <c r="E154" t="s">
-        <v>267</v>
-      </c>
-      <c r="F154" s="3"/>
+      <c r="E154" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C155" t="s">
         <v>66</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="F155" s="1"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C156" t="s">
         <v>66</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C157" t="s">
         <v>66</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F157" s="1"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C158" t="s">
         <v>66</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C159" t="s">
         <v>66</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F159" s="1"/>
+      <c r="E159" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C160" t="s">
         <v>66</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F160" s="1"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C161" t="s">
         <v>66</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F161" s="1"/>
+      <c r="E161" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C162" t="s">
         <v>66</v>
       </c>
-      <c r="E162" t="s">
-        <v>285</v>
-      </c>
-      <c r="F162" s="3"/>
+      <c r="E162" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F162" s="1"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B163" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C163" t="s">
         <v>66</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="F163" s="1"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C164" t="s">
         <v>66</v>
       </c>
-      <c r="E164" t="s">
-        <v>283</v>
-      </c>
-      <c r="F164" s="3"/>
+      <c r="E164" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F164" s="1"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B165" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C165" t="s">
         <v>66</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F165" s="1"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B166" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C166" t="s">
         <v>66</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F166" s="1"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B167" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C167" t="s">
         <v>66</v>
@@ -4664,181 +4730,180 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B168" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C168" t="s">
         <v>66</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C169" t="s">
         <v>66</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F169" s="1"/>
+      <c r="E169" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B170" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C170" t="s">
         <v>66</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B171" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C171" t="s">
         <v>66</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F171" s="1"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="C172" t="s">
-        <v>66</v>
-      </c>
-      <c r="E172" t="s">
-        <v>282</v>
-      </c>
-      <c r="F172" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B173" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="C173" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="F173" s="1"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B174" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="C174" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B175" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C175" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B176" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C176" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="C177" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="C178" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F178" s="1"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="C179" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F179" s="1"/>
     </row>
@@ -4853,7 +4918,7 @@
         <v>44</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F180" s="1"/>
     </row>
@@ -4868,7 +4933,7 @@
         <v>44</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F181" s="1"/>
     </row>
@@ -4883,7 +4948,7 @@
         <v>44</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F182" s="1"/>
     </row>
@@ -4898,7 +4963,7 @@
         <v>44</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F183" s="1"/>
     </row>
@@ -4913,7 +4978,7 @@
         <v>44</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F184" s="1"/>
     </row>
@@ -4928,7 +4993,7 @@
         <v>44</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F185" s="1"/>
     </row>
@@ -4943,7 +5008,7 @@
         <v>44</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="F186" s="1"/>
     </row>
@@ -4958,7 +5023,7 @@
         <v>44</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F187" s="1"/>
     </row>
@@ -4973,7 +5038,7 @@
         <v>44</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F188" s="1"/>
     </row>
@@ -4988,7 +5053,7 @@
         <v>44</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F189" s="1"/>
     </row>
@@ -4997,47 +5062,44 @@
         <v>5</v>
       </c>
       <c r="B190" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C190" t="s">
-        <v>44</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F190" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="E190" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>5</v>
       </c>
       <c r="B191" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C191" t="s">
-        <v>44</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F191" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="E191" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>5</v>
       </c>
       <c r="B192" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="E192" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -5048,11 +5110,10 @@
         <v>66</v>
       </c>
       <c r="E193" t="s">
-        <v>303</v>
-      </c>
-      <c r="F193" s="3"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -5063,11 +5124,10 @@
         <v>66</v>
       </c>
       <c r="E194" t="s">
-        <v>304</v>
-      </c>
-      <c r="F194" s="3"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5078,11 +5138,10 @@
         <v>66</v>
       </c>
       <c r="E195" t="s">
-        <v>305</v>
-      </c>
-      <c r="F195" s="3"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -5093,11 +5152,10 @@
         <v>66</v>
       </c>
       <c r="E196" t="s">
-        <v>306</v>
-      </c>
-      <c r="F196" s="3"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -5108,11 +5166,10 @@
         <v>66</v>
       </c>
       <c r="E197" t="s">
-        <v>307</v>
-      </c>
-      <c r="F197" s="3"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -5123,11 +5180,10 @@
         <v>66</v>
       </c>
       <c r="E198" t="s">
-        <v>308</v>
-      </c>
-      <c r="F198" s="3"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -5138,11 +5194,10 @@
         <v>66</v>
       </c>
       <c r="E199" t="s">
-        <v>309</v>
-      </c>
-      <c r="F199" s="3"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -5153,11 +5208,10 @@
         <v>66</v>
       </c>
       <c r="E200" t="s">
-        <v>310</v>
-      </c>
-      <c r="F200" s="3"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -5168,11 +5222,10 @@
         <v>66</v>
       </c>
       <c r="E201" t="s">
-        <v>311</v>
-      </c>
-      <c r="F201" s="3"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -5183,11 +5236,10 @@
         <v>66</v>
       </c>
       <c r="E202" t="s">
-        <v>312</v>
-      </c>
-      <c r="F202" s="3"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -5198,11 +5250,10 @@
         <v>66</v>
       </c>
       <c r="E203" t="s">
-        <v>313</v>
-      </c>
-      <c r="F203" s="3"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5213,94 +5264,48 @@
         <v>66</v>
       </c>
       <c r="E204" t="s">
-        <v>314</v>
-      </c>
-      <c r="F204" s="3"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B205" t="s">
-        <v>65</v>
-      </c>
-      <c r="C205" t="s">
-        <v>66</v>
-      </c>
-      <c r="E205" t="s">
-        <v>315</v>
-      </c>
-      <c r="F205" s="3"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B206" t="s">
-        <v>65</v>
-      </c>
-      <c r="C206" t="s">
-        <v>66</v>
-      </c>
-      <c r="E206" t="s">
-        <v>316</v>
-      </c>
-      <c r="F206" s="3"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" t="s">
-        <v>65</v>
-      </c>
-      <c r="C207" t="s">
-        <v>66</v>
-      </c>
-      <c r="E207" t="s">
-        <v>317</v>
-      </c>
-      <c r="F207" s="3"/>
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E165" r:id="rId1" xr:uid="{BF6C5A65-6085-41E8-9E20-0491390B8B73}"/>
-    <hyperlink ref="E166" r:id="rId2" xr:uid="{8A8655B4-69F3-481B-9B07-DC96DA9FDE89}"/>
-    <hyperlink ref="E167" r:id="rId3" xr:uid="{CF73A255-EE46-41D8-9880-1809CBE25ABF}"/>
-    <hyperlink ref="E161" r:id="rId4" xr:uid="{C5753ABF-4437-42AF-A6F4-B3F7C80AA090}"/>
-    <hyperlink ref="E160" r:id="rId5" xr:uid="{113B6FFD-796D-4005-BD03-9A260231C721}"/>
-    <hyperlink ref="E159" r:id="rId6" location="14.29/41.89547/12.46792/17.7 " xr:uid="{AC6BDF8D-46C5-44C9-A3F8-8EA358434011}"/>
-    <hyperlink ref="E158" r:id="rId7" xr:uid="{EF9F052D-5CAB-4EEC-BEF3-77DF3EA04DC1}"/>
-    <hyperlink ref="E168" r:id="rId8" location="15.96/41.895619/12.477807/20 ; " xr:uid="{68F881AB-B886-4CCA-8FB7-5B5BEA5D2B88}"/>
-    <hyperlink ref="E157" r:id="rId9" xr:uid="{774C874A-0F4E-4A51-AB1D-5B899F7362FE}"/>
-    <hyperlink ref="E156" r:id="rId10" xr:uid="{70FF4082-29EC-4C63-829B-842D883039D7}"/>
-    <hyperlink ref="E169" r:id="rId11" xr:uid="{3A793549-D26B-45E9-8569-5E22FD77AEB5}"/>
-    <hyperlink ref="E155" r:id="rId12" xr:uid="{A7E9EA8B-8669-49FD-9557-1BFC259A4EB8}"/>
-    <hyperlink ref="E175" r:id="rId13" xr:uid="{3793080D-D97B-480A-8327-4D99E6ABC10B}"/>
-    <hyperlink ref="E176" r:id="rId14" xr:uid="{BA455B2C-76A9-4EA9-8951-BC56FF9B68B7}"/>
-    <hyperlink ref="E179" r:id="rId15" xr:uid="{DD2925F6-D0BB-4599-A9F7-571472F22FE8}"/>
-    <hyperlink ref="E178" r:id="rId16" xr:uid="{95B66F08-FBC1-4077-9051-2EBC703731AE}"/>
-    <hyperlink ref="E177" r:id="rId17" xr:uid="{2C95CB2C-1BF1-4AA7-9F22-156636365ED5}"/>
-    <hyperlink ref="E151" r:id="rId18" xr:uid="{9EA04A47-43E5-45D2-88E1-39CC3A65C5FA}"/>
-    <hyperlink ref="E152" r:id="rId19" xr:uid="{3A031500-2559-42AA-A575-BA980DEEB439}"/>
-    <hyperlink ref="E170" r:id="rId20" xr:uid="{CBC0E5C5-25EE-423F-A1AD-03EB6B1A8664}"/>
-    <hyperlink ref="E171" r:id="rId21" xr:uid="{63A43342-B565-432E-BC05-AB681D6D2DE4}"/>
-    <hyperlink ref="E173" r:id="rId22" location="17.35/41.896072/12.482376 " xr:uid="{78343CC2-7CC5-4EFB-A83B-6A60342272DB}"/>
-    <hyperlink ref="E174" r:id="rId23" location="16.5/42.348011/13.397988/-69/26" xr:uid="{C10E8B1E-6445-4CA2-9999-C9472E7B5C2F}"/>
-    <hyperlink ref="E163" r:id="rId24" xr:uid="{AC75BA5F-4590-4C40-B361-5C94CE67404D}"/>
-    <hyperlink ref="E180" r:id="rId25" xr:uid="{215E72C6-5C9A-4E90-A601-68A98DA0F98C}"/>
-    <hyperlink ref="E181" r:id="rId26" xr:uid="{B9BD6DE1-7FF2-43C6-A696-F9FA54B73C90}"/>
-    <hyperlink ref="E182" r:id="rId27" xr:uid="{50F0B83B-BA4A-4A43-8C79-52825C7CAAAC}"/>
-    <hyperlink ref="E183" r:id="rId28" xr:uid="{383DD85F-D337-49BA-B8B6-ACFCDABC0877}"/>
-    <hyperlink ref="E184" r:id="rId29" xr:uid="{26406005-61FF-40A0-B498-21BA02055859}"/>
-    <hyperlink ref="E185" r:id="rId30" xr:uid="{B150E991-50AC-433D-80E2-9E2794DB0AF0}"/>
-    <hyperlink ref="E186" r:id="rId31" xr:uid="{F714AC7F-0632-48FC-AAEE-20A2D66AA953}"/>
-    <hyperlink ref="E187" r:id="rId32" xr:uid="{CD2CF505-1C72-4E13-A713-DC01EB068700}"/>
-    <hyperlink ref="E188" r:id="rId33" xr:uid="{1622929D-F3B4-48E2-AF31-CB735E4303B2}"/>
-    <hyperlink ref="E189" r:id="rId34" xr:uid="{D0A742C1-DEFB-43CC-B0E0-2B6B850483CB}"/>
-    <hyperlink ref="E190" r:id="rId35" xr:uid="{0094309A-2744-42C2-AB56-E92472E363CF}"/>
-    <hyperlink ref="E191" r:id="rId36" xr:uid="{C24718AF-DCF4-4011-856C-BF56163CADCF}"/>
-    <hyperlink ref="E192" r:id="rId37" xr:uid="{DB4CF26D-6CF7-48C1-98F8-8745DDC04A36}"/>
+    <hyperlink ref="E162" r:id="rId1" xr:uid="{BF6C5A65-6085-41E8-9E20-0491390B8B73}"/>
+    <hyperlink ref="E163" r:id="rId2" xr:uid="{8A8655B4-69F3-481B-9B07-DC96DA9FDE89}"/>
+    <hyperlink ref="E164" r:id="rId3" xr:uid="{CF73A255-EE46-41D8-9880-1809CBE25ABF}"/>
+    <hyperlink ref="E158" r:id="rId4" xr:uid="{C5753ABF-4437-42AF-A6F4-B3F7C80AA090}"/>
+    <hyperlink ref="E157" r:id="rId5" xr:uid="{113B6FFD-796D-4005-BD03-9A260231C721}"/>
+    <hyperlink ref="E156" r:id="rId6" location="14.29/41.89547/12.46792/17.7 " xr:uid="{AC6BDF8D-46C5-44C9-A3F8-8EA358434011}"/>
+    <hyperlink ref="E155" r:id="rId7" xr:uid="{EF9F052D-5CAB-4EEC-BEF3-77DF3EA04DC1}"/>
+    <hyperlink ref="E165" r:id="rId8" location="15.96/41.895619/12.477807/20 ; " xr:uid="{68F881AB-B886-4CCA-8FB7-5B5BEA5D2B88}"/>
+    <hyperlink ref="E154" r:id="rId9" xr:uid="{774C874A-0F4E-4A51-AB1D-5B899F7362FE}"/>
+    <hyperlink ref="E153" r:id="rId10" xr:uid="{70FF4082-29EC-4C63-829B-842D883039D7}"/>
+    <hyperlink ref="E166" r:id="rId11" xr:uid="{3A793549-D26B-45E9-8569-5E22FD77AEB5}"/>
+    <hyperlink ref="E152" r:id="rId12" xr:uid="{A7E9EA8B-8669-49FD-9557-1BFC259A4EB8}"/>
+    <hyperlink ref="E172" r:id="rId13" xr:uid="{3793080D-D97B-480A-8327-4D99E6ABC10B}"/>
+    <hyperlink ref="E173" r:id="rId14" xr:uid="{BA455B2C-76A9-4EA9-8951-BC56FF9B68B7}"/>
+    <hyperlink ref="E176" r:id="rId15" xr:uid="{DD2925F6-D0BB-4599-A9F7-571472F22FE8}"/>
+    <hyperlink ref="E175" r:id="rId16" xr:uid="{95B66F08-FBC1-4077-9051-2EBC703731AE}"/>
+    <hyperlink ref="E174" r:id="rId17" xr:uid="{2C95CB2C-1BF1-4AA7-9F22-156636365ED5}"/>
+    <hyperlink ref="E148" r:id="rId18" xr:uid="{9EA04A47-43E5-45D2-88E1-39CC3A65C5FA}"/>
+    <hyperlink ref="E149" r:id="rId19" xr:uid="{3A031500-2559-42AA-A575-BA980DEEB439}"/>
+    <hyperlink ref="E167" r:id="rId20" xr:uid="{CBC0E5C5-25EE-423F-A1AD-03EB6B1A8664}"/>
+    <hyperlink ref="E168" r:id="rId21" xr:uid="{63A43342-B565-432E-BC05-AB681D6D2DE4}"/>
+    <hyperlink ref="E170" r:id="rId22" location="17.35/41.896072/12.482376 " xr:uid="{78343CC2-7CC5-4EFB-A83B-6A60342272DB}"/>
+    <hyperlink ref="E171" r:id="rId23" location="16.5/42.348011/13.397988/-69/26" xr:uid="{C10E8B1E-6445-4CA2-9999-C9472E7B5C2F}"/>
+    <hyperlink ref="E160" r:id="rId24" xr:uid="{AC75BA5F-4590-4C40-B361-5C94CE67404D}"/>
+    <hyperlink ref="E177" r:id="rId25" xr:uid="{215E72C6-5C9A-4E90-A601-68A98DA0F98C}"/>
+    <hyperlink ref="E178" r:id="rId26" xr:uid="{B9BD6DE1-7FF2-43C6-A696-F9FA54B73C90}"/>
+    <hyperlink ref="E179" r:id="rId27" xr:uid="{50F0B83B-BA4A-4A43-8C79-52825C7CAAAC}"/>
+    <hyperlink ref="E180" r:id="rId28" xr:uid="{383DD85F-D337-49BA-B8B6-ACFCDABC0877}"/>
+    <hyperlink ref="E181" r:id="rId29" xr:uid="{26406005-61FF-40A0-B498-21BA02055859}"/>
+    <hyperlink ref="E182" r:id="rId30" xr:uid="{B150E991-50AC-433D-80E2-9E2794DB0AF0}"/>
+    <hyperlink ref="E183" r:id="rId31" xr:uid="{F714AC7F-0632-48FC-AAEE-20A2D66AA953}"/>
+    <hyperlink ref="E184" r:id="rId32" xr:uid="{CD2CF505-1C72-4E13-A713-DC01EB068700}"/>
+    <hyperlink ref="E185" r:id="rId33" xr:uid="{1622929D-F3B4-48E2-AF31-CB735E4303B2}"/>
+    <hyperlink ref="E186" r:id="rId34" xr:uid="{D0A742C1-DEFB-43CC-B0E0-2B6B850483CB}"/>
+    <hyperlink ref="E187" r:id="rId35" xr:uid="{0094309A-2744-42C2-AB56-E92472E363CF}"/>
+    <hyperlink ref="E188" r:id="rId36" xr:uid="{C24718AF-DCF4-4011-856C-BF56163CADCF}"/>
+    <hyperlink ref="E189" r:id="rId37" xr:uid="{DB4CF26D-6CF7-48C1-98F8-8745DDC04A36}"/>
     <hyperlink ref="E3" r:id="rId38" xr:uid="{49D32165-E8EC-4464-8883-DE53CAB943E1}"/>
     <hyperlink ref="E4" r:id="rId39" xr:uid="{44DEF95A-A75D-483E-A06C-FCC9B947E5DE}"/>
     <hyperlink ref="E5" r:id="rId40" xr:uid="{974B7FD6-F3E0-43F6-BCBD-1254A8D249AC}"/>
@@ -5333,10 +5338,45 @@
     <hyperlink ref="E51" r:id="rId67" xr:uid="{17987393-24EA-4061-81FE-D88C0FCBE80E}"/>
     <hyperlink ref="E52" r:id="rId68" xr:uid="{70DCC87D-B22B-4EDA-8829-EA339498F308}"/>
     <hyperlink ref="E53" r:id="rId69" xr:uid="{531559C3-48B1-4311-9B8A-109D118668B9}"/>
+    <hyperlink ref="E65" r:id="rId70" xr:uid="{A1E54A28-E747-48FD-A2CF-6DB0D6FBCFF3}"/>
+    <hyperlink ref="E66" r:id="rId71" xr:uid="{90A60712-CD03-4D15-8385-809834C72182}"/>
+    <hyperlink ref="E68" r:id="rId72" xr:uid="{A130A949-2BBB-48A3-93C3-66E1AB6A6B5A}"/>
+    <hyperlink ref="E70" r:id="rId73" xr:uid="{14D5FC19-57C9-4589-86DA-44A2065E74C6}"/>
+    <hyperlink ref="E71" r:id="rId74" xr:uid="{78DC93BA-B80D-48D7-BCD9-4CED140A1D12}"/>
+    <hyperlink ref="E73" r:id="rId75" xr:uid="{850DBAC6-3111-44FF-BF26-7F9735CE0365}"/>
+    <hyperlink ref="E74" r:id="rId76" xr:uid="{1AAC861C-A244-4B33-89D3-6995E5348ADE}"/>
+    <hyperlink ref="E75" r:id="rId77" location="page-top" xr:uid="{EFC4999B-FC88-4E3A-84C5-49C0D3C35DCB}"/>
+    <hyperlink ref="E76" r:id="rId78" xr:uid="{86D19F26-F914-4666-A301-0F6957241E4A}"/>
+    <hyperlink ref="E78" r:id="rId79" xr:uid="{2EF072F5-0C9B-4E7A-A27A-B34C70B31A8A}"/>
+    <hyperlink ref="E79" r:id="rId80" xr:uid="{27569D59-26B7-43E2-A418-B567C909DAB7}"/>
+    <hyperlink ref="E81" r:id="rId81" xr:uid="{28A8614E-1E16-4074-A547-496F0594E17F}"/>
+    <hyperlink ref="E82" r:id="rId82" xr:uid="{B2468746-17E2-41FE-8754-FCCDF0739371}"/>
+    <hyperlink ref="E83" r:id="rId83" xr:uid="{D1C490CB-BACB-4B80-928C-057D59BD8D38}"/>
+    <hyperlink ref="E84" r:id="rId84" xr:uid="{4C0DB72C-25AB-4427-8232-FF30FD5F4C0E}"/>
+    <hyperlink ref="E85" r:id="rId85" xr:uid="{1BAE776B-D4E4-4945-8848-1DBA21C8880B}"/>
+    <hyperlink ref="E86" r:id="rId86" xr:uid="{515AD6CA-A1C7-4F67-B339-0EC6ABEDED07}"/>
+    <hyperlink ref="E87" r:id="rId87" xr:uid="{BFA473BB-AE9F-4FDA-B832-E251166CB65C}"/>
+    <hyperlink ref="E88" r:id="rId88" xr:uid="{D175EA31-3ED7-4D81-9506-FC1B40ADC7D9}"/>
+    <hyperlink ref="E89" r:id="rId89" xr:uid="{89C4CD7A-B62F-40FF-A5B8-56C9EAA8877E}"/>
+    <hyperlink ref="E90" r:id="rId90" xr:uid="{8515A4C7-A26F-4881-A80E-1CDA7254F192}"/>
+    <hyperlink ref="E91" r:id="rId91" xr:uid="{CA931B24-3EFE-412F-B96C-CF7EF031C87C}"/>
+    <hyperlink ref="E92" r:id="rId92" xr:uid="{FE0D7FA1-52B6-4445-852C-B4206DF0068E}"/>
+    <hyperlink ref="E93" r:id="rId93" xr:uid="{51F16AB9-5819-496A-B085-25BE90D8C5A0}"/>
+    <hyperlink ref="E94" r:id="rId94" xr:uid="{6AAAC3F3-FE6D-4CBB-8B0D-553DD7B0C68B}"/>
+    <hyperlink ref="E96" r:id="rId95" xr:uid="{B7BBBC47-4F53-4700-A4BF-8CDE76E0A4CA}"/>
+    <hyperlink ref="E97" r:id="rId96" xr:uid="{1C022890-28F5-4667-AC45-EA68FC9FA726}"/>
+    <hyperlink ref="E98" r:id="rId97" xr:uid="{07C7F106-6CB6-46FB-B599-52CFB71890C1}"/>
+    <hyperlink ref="E100" r:id="rId98" xr:uid="{85299AB4-DB35-493C-985F-483D0D7C7568}"/>
+    <hyperlink ref="E102" r:id="rId99" xr:uid="{6859EDB8-9CD2-4579-A6AE-841A040E8488}"/>
+    <hyperlink ref="E103" r:id="rId100" xr:uid="{E3E0EF7D-3CE3-48FA-ACB0-808C777147CE}"/>
+    <hyperlink ref="E104" r:id="rId101" xr:uid="{7B94AC2C-7583-4BDA-B50F-C3C15AE9B1F9}"/>
+    <hyperlink ref="E106" r:id="rId102" xr:uid="{7671F400-F59D-4068-A466-700DE3754BEC}"/>
+    <hyperlink ref="E107" r:id="rId103" xr:uid="{739C4E3E-6463-4F38-867E-B2B3B8070FAA}"/>
+    <hyperlink ref="E108" r:id="rId104" xr:uid="{577615FE-A05D-4749-BF1D-CDD634C2AEAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId70"/>
+    <tablePart r:id="rId105"/>
   </tableParts>
 </worksheet>
 </file>

--- a/giorgia/filtering_DH_institutions_from_links.xlsx
+++ b/giorgia/filtering_DH_institutions_from_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crosi\Documents\GitHub\Vita-e-morte-DH-projects\giorgia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19845F3A-7F9E-4D4C-B6C8-DD0F50B1DE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D433BB2-D71B-4453-A5F2-432B141BA946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{DA4FCA1B-1D56-46B8-9FAB-A51998706F66}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="11686" windowHeight="13763" xr2:uid="{DA4FCA1B-1D56-46B8-9FAB-A51998706F66}"/>
   </bookViews>
   <sheets>
     <sheet name="dh_projects_results" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="415">
   <si>
     <t>categoria</t>
   </si>
@@ -814,9 +814,6 @@
     <t xml:space="preserve"> https://wissensgeschichte.biblhertz.it/Glossario </t>
   </si>
   <si>
-    <t xml:space="preserve">https://florentinedrawings.itatti.harvard.edu/resource/Start ;  </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://cria.itatti.harvard.edu/ </t>
   </si>
   <si>
@@ -919,51 +916,21 @@
     <t>https://www.mqdq.it/public/</t>
   </si>
   <si>
-    <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/san-francesco-4-0</t>
-  </si>
-  <si>
     <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/techne</t>
   </si>
   <si>
-    <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/manifesti-delludi</t>
-  </si>
-  <si>
     <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/archivio-storico-fotografico-adolfo-venturi</t>
   </si>
   <si>
-    <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/tibl</t>
-  </si>
-  <si>
-    <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/horizon-up2u</t>
-  </si>
-  <si>
     <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/vism</t>
   </si>
   <si>
-    <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/arte-e-apprendimento</t>
-  </si>
-  <si>
     <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/recap</t>
   </si>
   <si>
     <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/arts-0-1</t>
   </si>
   <si>
-    <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/edmuse</t>
-  </si>
-  <si>
-    <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/europeana-food-and-drink</t>
-  </si>
-  <si>
-    <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/bladedu</t>
-  </si>
-  <si>
-    <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/eagle-project</t>
-  </si>
-  <si>
-    <t>https://digilab.uniroma1.it/ricerca/progetti-conclusi/dixit</t>
-  </si>
-  <si>
     <t>what is it?</t>
   </si>
   <si>
@@ -1253,13 +1220,95 @@
   </si>
   <si>
     <t>aggiungere altri progetti fbk dalla pagina https://dh.fbk.eu/category/projects/</t>
+  </si>
+  <si>
+    <t>accesso negato per accedere al sito il cui link è su questa pagina.</t>
+  </si>
+  <si>
+    <t>https://www.camminodifrancesco.eu/</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>no sito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://archiviodigitale.udinazionale.org/ </t>
+  </si>
+  <si>
+    <t>archvio digitale</t>
+  </si>
+  <si>
+    <t>https://www.tibl-project.eu/web/en/</t>
+  </si>
+  <si>
+    <t>corsi per blended learning</t>
+  </si>
+  <si>
+    <t>https://wiki.geant.org/display/UP2U/Up2U</t>
+  </si>
+  <si>
+    <t>https://www.vtsitalia.cloud/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://edmuse.eu/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://foodanddrinkeurope.eu/ </t>
+  </si>
+  <si>
+    <t>riuso fonti digitali in europeana</t>
+  </si>
+  <si>
+    <t>https://www.blendedlearning-quality.net/</t>
+  </si>
+  <si>
+    <t>blended learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.eagle-network.eu/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dixit.uni-koeln.de/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Digital Scholarly Editions Initial Training Network</t>
+  </si>
+  <si>
+    <t>colllezione digitale</t>
+  </si>
+  <si>
+    <t>https://florentinedrawings.itatti.harvard.edu/resource/Start</t>
+  </si>
+  <si>
+    <t>collezione digitale</t>
+  </si>
+  <si>
+    <t>sito di museo</t>
+  </si>
+  <si>
+    <t>digital archive</t>
+  </si>
+  <si>
+    <t>resources for digital scholarly editing</t>
+  </si>
+  <si>
+    <t>catalogo digitale</t>
+  </si>
+  <si>
+    <t>archivio digitale e editor</t>
+  </si>
+  <si>
+    <t>biblioteca digitale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1277,6 +1326,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1311,14 +1368,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1707,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A0B48E-5133-44BB-8BE0-59B26DE9E52C}">
   <dimension ref="A2:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M117" sqref="M117"/>
+    <sheetView tabSelected="1" topLeftCell="G158" zoomScale="54" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1737,7 +1797,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1754,10 +1814,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1777,7 +1837,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1791,13 +1851,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1817,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1837,7 +1897,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1851,13 +1911,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F8" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1877,7 +1937,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1891,13 +1951,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1911,13 +1971,13 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F11" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1937,7 +1997,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1957,7 +2017,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1977,7 +2037,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1997,7 +2057,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -2011,13 +2071,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F16" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -2037,7 +2097,7 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -2057,7 +2117,7 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -2077,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -2097,7 +2157,7 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -2117,7 +2177,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -2131,13 +2191,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E22" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -2157,7 +2217,7 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -2177,7 +2237,7 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -2208,13 +2268,13 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F26" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -2234,7 +2294,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -2254,7 +2314,7 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -2274,7 +2334,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -2311,7 +2371,7 @@
         <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -2331,7 +2391,7 @@
         <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -2351,7 +2411,7 @@
         <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -2371,7 +2431,7 @@
         <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -2388,10 +2448,10 @@
         <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F35" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -2408,10 +2468,10 @@
         <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F36" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -2428,10 +2488,10 @@
         <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F37" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2465,10 +2525,10 @@
         <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -2485,10 +2545,10 @@
         <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F40" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -2508,7 +2568,7 @@
         <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -2562,7 +2622,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -2664,10 +2724,10 @@
         <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2684,10 +2744,10 @@
         <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F51" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2704,10 +2764,10 @@
         <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F52" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2724,7 +2784,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2931,7 +2991,7 @@
         <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -2951,7 +3011,7 @@
         <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -2971,7 +3031,7 @@
         <v>118</v>
       </c>
       <c r="F67" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -3025,7 +3085,7 @@
         <v>121</v>
       </c>
       <c r="F70" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -3045,7 +3105,7 @@
         <v>122</v>
       </c>
       <c r="F71" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -3065,7 +3125,7 @@
         <v>123</v>
       </c>
       <c r="F72" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -3113,13 +3173,13 @@
         <v>127</v>
       </c>
       <c r="D75" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -3136,22 +3196,18 @@
         <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F76" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
       <c r="E77" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>371</v>
+        <v>359</v>
+      </c>
+      <c r="F77" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -3168,10 +3224,10 @@
         <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F78" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -3191,7 +3247,7 @@
         <v>131</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -3229,7 +3285,7 @@
         <v>136</v>
       </c>
       <c r="F81" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -3249,7 +3305,7 @@
         <v>138</v>
       </c>
       <c r="F82" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -3269,7 +3325,7 @@
         <v>139</v>
       </c>
       <c r="F83" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -3289,7 +3345,7 @@
         <v>140</v>
       </c>
       <c r="F84" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -3309,7 +3365,7 @@
         <v>141</v>
       </c>
       <c r="F85" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -3346,7 +3402,7 @@
         <v>147</v>
       </c>
       <c r="F87" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -3366,7 +3422,7 @@
         <v>149</v>
       </c>
       <c r="F88" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -3403,7 +3459,7 @@
         <v>153</v>
       </c>
       <c r="F90" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -3440,7 +3496,7 @@
         <v>157</v>
       </c>
       <c r="F92" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
@@ -3457,10 +3513,10 @@
         <v>161</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F93" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -3480,7 +3536,7 @@
         <v>163</v>
       </c>
       <c r="F94" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -3497,10 +3553,10 @@
         <v>164</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F95" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -3520,7 +3576,7 @@
         <v>166</v>
       </c>
       <c r="F96" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -3540,7 +3596,7 @@
         <v>168</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -3557,10 +3613,10 @@
         <v>169</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F98" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -3577,10 +3633,10 @@
         <v>170</v>
       </c>
       <c r="E99" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F99" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
@@ -3600,7 +3656,7 @@
         <v>172</v>
       </c>
       <c r="F100" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
@@ -3620,7 +3676,7 @@
         <v>174</v>
       </c>
       <c r="F101" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
@@ -3637,10 +3693,10 @@
         <v>178</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F102" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -3657,10 +3713,10 @@
         <v>179</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F103" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -3680,7 +3736,7 @@
         <v>180</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -3700,7 +3756,7 @@
         <v>181</v>
       </c>
       <c r="F105" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -3717,13 +3773,13 @@
         <v>182</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="F106" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="I106" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
@@ -3740,10 +3796,10 @@
         <v>183</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F107" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -3760,13 +3816,13 @@
         <v>184</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="F108" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="H108" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -4443,7 +4499,7 @@
         <v>66</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F148" s="1"/>
     </row>
@@ -4458,7 +4514,7 @@
         <v>66</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F149" s="1"/>
     </row>
@@ -4473,7 +4529,7 @@
         <v>66</v>
       </c>
       <c r="E150" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
@@ -4516,7 +4572,7 @@
         <v>66</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F153" s="1"/>
     </row>
@@ -4531,7 +4587,7 @@
         <v>66</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F154" s="1"/>
     </row>
@@ -4561,7 +4617,7 @@
         <v>66</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F156" s="1"/>
     </row>
@@ -4576,7 +4632,7 @@
         <v>66</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F157" s="1"/>
     </row>
@@ -4591,7 +4647,7 @@
         <v>66</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F158" s="1"/>
     </row>
@@ -4606,7 +4662,7 @@
         <v>66</v>
       </c>
       <c r="E159" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
@@ -4620,7 +4676,7 @@
         <v>66</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F160" s="1"/>
     </row>
@@ -4635,7 +4691,7 @@
         <v>66</v>
       </c>
       <c r="E161" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
@@ -4724,7 +4780,7 @@
         <v>66</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F167" s="1"/>
     </row>
@@ -4739,7 +4795,7 @@
         <v>66</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F168" s="1"/>
     </row>
@@ -4754,7 +4810,7 @@
         <v>66</v>
       </c>
       <c r="E169" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -4768,7 +4824,7 @@
         <v>66</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F170" s="1"/>
     </row>
@@ -4783,7 +4839,7 @@
         <v>66</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F171" s="1"/>
     </row>
@@ -4792,77 +4848,87 @@
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C172" t="s">
         <v>160</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F172" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>158</v>
       </c>
       <c r="B173" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C173" t="s">
         <v>160</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F173" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>158</v>
       </c>
       <c r="B174" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C174" t="s">
         <v>160</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F174" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>158</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C175" t="s">
         <v>160</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F175" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>158</v>
       </c>
       <c r="B176" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C176" t="s">
         <v>160</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -4873,11 +4939,13 @@
         <v>44</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+        <v>273</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -4888,11 +4956,13 @@
         <v>44</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -4903,11 +4973,13 @@
         <v>44</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -4918,11 +4990,11 @@
         <v>44</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -4933,11 +5005,13 @@
         <v>44</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+        <v>277</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -4948,11 +5022,13 @@
         <v>44</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+        <v>278</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -4963,11 +5039,13 @@
         <v>44</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+        <v>279</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -4978,11 +5056,11 @@
         <v>44</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -4993,11 +5071,11 @@
         <v>44</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -5008,11 +5086,13 @@
         <v>44</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+        <v>282</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -5023,11 +5103,13 @@
         <v>44</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+        <v>283</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5038,11 +5120,13 @@
         <v>44</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+        <v>284</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -5053,11 +5137,14 @@
         <v>44</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+        <v>285</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I189" s="7"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -5067,11 +5154,14 @@
       <c r="C190" t="s">
         <v>66</v>
       </c>
-      <c r="E190" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E190" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F190" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -5081,11 +5171,14 @@
       <c r="C191" t="s">
         <v>66</v>
       </c>
-      <c r="E191" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E191" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F191" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -5095,11 +5188,14 @@
       <c r="C192" t="s">
         <v>66</v>
       </c>
-      <c r="E192" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E192" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F192" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -5109,11 +5205,14 @@
       <c r="C193" t="s">
         <v>66</v>
       </c>
-      <c r="E193" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E193" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F193" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -5123,11 +5222,14 @@
       <c r="C194" t="s">
         <v>66</v>
       </c>
-      <c r="E194" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E194" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F194" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5137,11 +5239,11 @@
       <c r="C195" t="s">
         <v>66</v>
       </c>
-      <c r="E195" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E195" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -5151,11 +5253,14 @@
       <c r="C196" t="s">
         <v>66</v>
       </c>
-      <c r="E196" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E196" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -5165,11 +5270,11 @@
       <c r="C197" t="s">
         <v>66</v>
       </c>
-      <c r="E197" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E197" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -5179,11 +5284,14 @@
       <c r="C198" t="s">
         <v>66</v>
       </c>
-      <c r="E198" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E198" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F198" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -5193,11 +5301,11 @@
       <c r="C199" t="s">
         <v>66</v>
       </c>
-      <c r="E199" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E199" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -5207,11 +5315,11 @@
       <c r="C200" t="s">
         <v>66</v>
       </c>
-      <c r="E200" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E200" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -5221,11 +5329,14 @@
       <c r="C201" t="s">
         <v>66</v>
       </c>
-      <c r="E201" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E201" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F201" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -5235,11 +5346,14 @@
       <c r="C202" t="s">
         <v>66</v>
       </c>
-      <c r="E202" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E202" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F202" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -5249,11 +5363,11 @@
       <c r="C203" t="s">
         <v>66</v>
       </c>
-      <c r="E203" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E203" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5263,8 +5377,11 @@
       <c r="C204" t="s">
         <v>66</v>
       </c>
-      <c r="E204" t="s">
-        <v>301</v>
+      <c r="E204" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5373,10 +5490,25 @@
     <hyperlink ref="E106" r:id="rId102" xr:uid="{7671F400-F59D-4068-A466-700DE3754BEC}"/>
     <hyperlink ref="E107" r:id="rId103" xr:uid="{739C4E3E-6463-4F38-867E-B2B3B8070FAA}"/>
     <hyperlink ref="E108" r:id="rId104" xr:uid="{577615FE-A05D-4749-BF1D-CDD634C2AEAC}"/>
+    <hyperlink ref="E193" r:id="rId105" xr:uid="{2B069703-6E13-4B25-95F1-15627FAEA9FE}"/>
+    <hyperlink ref="E190" r:id="rId106" xr:uid="{A69C1943-AE30-48BF-9643-A2E6FF6850DC}"/>
+    <hyperlink ref="E191" r:id="rId107" xr:uid="{FCDBF8E2-FB4A-46F0-A73A-D9A3B693919E}"/>
+    <hyperlink ref="E192" r:id="rId108" xr:uid="{7E1B296A-C148-49BD-9118-477095A1C4FB}"/>
+    <hyperlink ref="E194" r:id="rId109" xr:uid="{115D5700-800C-4543-933D-98237456025F}"/>
+    <hyperlink ref="E195" r:id="rId110" xr:uid="{275B6DC7-2C84-4E19-9260-4135646AAA15}"/>
+    <hyperlink ref="E196" r:id="rId111" xr:uid="{CBCF4982-BD4D-4A0A-A630-031BC9B5148C}"/>
+    <hyperlink ref="E197" r:id="rId112" xr:uid="{579668B1-2131-4C83-ADB3-6F9E5BBF925D}"/>
+    <hyperlink ref="E198" r:id="rId113" xr:uid="{8E3423B6-137B-4C4B-B12C-D06D41B03D90}"/>
+    <hyperlink ref="E199" r:id="rId114" xr:uid="{5F35DBA7-5130-4EF6-BD37-BCC7BF4EB33A}"/>
+    <hyperlink ref="E200" r:id="rId115" xr:uid="{3D125CC2-35E7-4654-9E2C-C6DCC750CEB8}"/>
+    <hyperlink ref="E201" r:id="rId116" xr:uid="{2346B510-9151-4D92-926A-8DD47775822E}"/>
+    <hyperlink ref="E202" r:id="rId117" xr:uid="{1572F9E4-71EF-44AE-983F-64F9427C9947}"/>
+    <hyperlink ref="E203" r:id="rId118" xr:uid="{25C2AEEC-894F-4508-BB44-4018E6A7A663}"/>
+    <hyperlink ref="E204" r:id="rId119" xr:uid="{A164F64D-623F-4CE9-ABA2-B9258C253145}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId105"/>
+    <tablePart r:id="rId120"/>
   </tableParts>
 </worksheet>
 </file>

--- a/giorgia/filtering_DH_institutions_from_links.xlsx
+++ b/giorgia/filtering_DH_institutions_from_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crosi\Documents\GitHub\Vita-e-morte-DH-projects\giorgia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D433BB2-D71B-4453-A5F2-432B141BA946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEAEA0D-DBA4-45BB-8F00-09789A597296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="11686" windowHeight="13763" xr2:uid="{DA4FCA1B-1D56-46B8-9FAB-A51998706F66}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="428">
   <si>
     <t>categoria</t>
   </si>
@@ -625,9 +625,6 @@
     <t>https://www.iliesi.cnr.it/iniziative/Descartes-Lab-Poster-Andrault-DEF.pdf</t>
   </si>
   <si>
-    <t>https://bit.ly/descartes-laboratory</t>
-  </si>
-  <si>
     <t>Institute for Computational Linguistics «A. Zampolli» - pisa</t>
   </si>
   <si>
@@ -661,9 +658,6 @@
     <t>vocabo</t>
   </si>
   <si>
-    <t>https://www.ilc.cnr.it/progetti/vocabo/</t>
-  </si>
-  <si>
     <t>readground</t>
   </si>
   <si>
@@ -680,9 +674,6 @@
   </si>
   <si>
     <t>roads</t>
-  </si>
-  <si>
-    <t>https://www.ilc.cnr.it/progetti/roads/</t>
   </si>
   <si>
     <t>fringe project</t>
@@ -1302,6 +1293,54 @@
   </si>
   <si>
     <t>biblioteca digitale</t>
+  </si>
+  <si>
+    <t>non è il sito</t>
+  </si>
+  <si>
+    <t>https://cwalm.ilc.cnr.it/</t>
+  </si>
+  <si>
+    <t>modello lessicografico</t>
+  </si>
+  <si>
+    <t>https://www.treccani.it/magazine/lingua_italiana/speciali/VocaBO/2_Pani.html</t>
+  </si>
+  <si>
+    <t>vocabolario digitale</t>
+  </si>
+  <si>
+    <t>https://www.circe-project.eu/</t>
+  </si>
+  <si>
+    <t>https://epica.dmi.unipg.it/</t>
+  </si>
+  <si>
+    <t>https://graspos.eu/</t>
+  </si>
+  <si>
+    <t>https://csc.dei.unipd.it/roads-project/index.html</t>
+  </si>
+  <si>
+    <t>model and tools for the preservation of oral archives</t>
+  </si>
+  <si>
+    <t>https://www.ilc.cnr.it/lucet/</t>
+  </si>
+  <si>
+    <t>linguistic evaliation in education (penso sia un tool)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non è il sito </t>
+  </si>
+  <si>
+    <t>https://www.h2iosc.cnr.it/</t>
+  </si>
+  <si>
+    <t>cloud of humanities nd cultural heritage</t>
+  </si>
+  <si>
+    <t>https://www.skills4eosc.eu/</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A0B48E-5133-44BB-8BE0-59B26DE9E52C}">
   <dimension ref="A2:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G158" zoomScale="54" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I189" sqref="I189"/>
+    <sheetView tabSelected="1" topLeftCell="E111" zoomScale="76" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1797,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1814,10 +1853,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1837,7 +1876,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1851,13 +1890,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1877,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1897,7 +1936,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1911,13 +1950,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1937,7 +1976,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1951,13 +1990,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1971,13 +2010,13 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1997,7 +2036,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -2017,7 +2056,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -2037,7 +2076,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -2057,7 +2096,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -2071,13 +2110,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -2097,7 +2136,7 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -2117,7 +2156,7 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -2137,7 +2176,7 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -2157,7 +2196,7 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -2177,7 +2216,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -2191,13 +2230,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -2217,7 +2256,7 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -2237,7 +2276,7 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -2268,13 +2307,13 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -2294,7 +2333,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -2314,7 +2353,7 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -2334,7 +2373,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -2371,7 +2410,7 @@
         <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -2391,7 +2430,7 @@
         <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -2411,7 +2450,7 @@
         <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -2431,7 +2470,7 @@
         <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -2448,10 +2487,10 @@
         <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F35" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -2468,10 +2507,10 @@
         <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F36" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -2488,10 +2527,10 @@
         <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2525,10 +2564,10 @@
         <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -2545,10 +2584,10 @@
         <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F40" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -2568,7 +2607,7 @@
         <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -2622,7 +2661,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -2724,10 +2763,10 @@
         <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2744,10 +2783,10 @@
         <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F51" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2764,10 +2803,10 @@
         <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2784,7 +2823,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2991,7 +3030,7 @@
         <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -3011,7 +3050,7 @@
         <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -3031,7 +3070,7 @@
         <v>118</v>
       </c>
       <c r="F67" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -3085,7 +3124,7 @@
         <v>121</v>
       </c>
       <c r="F70" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -3105,7 +3144,7 @@
         <v>122</v>
       </c>
       <c r="F71" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -3125,7 +3164,7 @@
         <v>123</v>
       </c>
       <c r="F72" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -3173,13 +3212,13 @@
         <v>127</v>
       </c>
       <c r="D75" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -3196,18 +3235,18 @@
         <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F76" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E77" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F77" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -3224,10 +3263,10 @@
         <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F78" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -3247,7 +3286,7 @@
         <v>131</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -3285,7 +3324,7 @@
         <v>136</v>
       </c>
       <c r="F81" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -3305,7 +3344,7 @@
         <v>138</v>
       </c>
       <c r="F82" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -3325,7 +3364,7 @@
         <v>139</v>
       </c>
       <c r="F83" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -3345,7 +3384,7 @@
         <v>140</v>
       </c>
       <c r="F84" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -3365,7 +3404,7 @@
         <v>141</v>
       </c>
       <c r="F85" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -3402,7 +3441,7 @@
         <v>147</v>
       </c>
       <c r="F87" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -3422,7 +3461,7 @@
         <v>149</v>
       </c>
       <c r="F88" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -3459,7 +3498,7 @@
         <v>153</v>
       </c>
       <c r="F90" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -3496,7 +3535,7 @@
         <v>157</v>
       </c>
       <c r="F92" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
@@ -3513,10 +3552,10 @@
         <v>161</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F93" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -3536,7 +3575,7 @@
         <v>163</v>
       </c>
       <c r="F94" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -3553,10 +3592,10 @@
         <v>164</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F95" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -3576,7 +3615,7 @@
         <v>166</v>
       </c>
       <c r="F96" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -3596,7 +3635,7 @@
         <v>168</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -3613,10 +3652,10 @@
         <v>169</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F98" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -3633,10 +3672,10 @@
         <v>170</v>
       </c>
       <c r="E99" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F99" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
@@ -3656,7 +3695,7 @@
         <v>172</v>
       </c>
       <c r="F100" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
@@ -3676,7 +3715,7 @@
         <v>174</v>
       </c>
       <c r="F101" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
@@ -3693,10 +3732,10 @@
         <v>178</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F102" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -3713,10 +3752,10 @@
         <v>179</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F103" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -3736,7 +3775,7 @@
         <v>180</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -3756,7 +3795,7 @@
         <v>181</v>
       </c>
       <c r="F105" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -3773,13 +3812,13 @@
         <v>182</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F106" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I106" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
@@ -3796,10 +3835,10 @@
         <v>183</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F107" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -3816,13 +3855,13 @@
         <v>184</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F108" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H108" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -3849,31 +3888,25 @@
       <c r="B110" t="s">
         <v>186</v>
       </c>
-      <c r="C110" t="s">
-        <v>66</v>
-      </c>
-      <c r="D110" t="s">
-        <v>189</v>
-      </c>
-      <c r="E110" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>185</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C111" t="s">
         <v>58</v>
       </c>
       <c r="D111" t="s">
+        <v>190</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E111" t="s">
-        <v>192</v>
+      <c r="F111" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -3881,288 +3914,330 @@
         <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C112" t="s">
         <v>58</v>
       </c>
       <c r="D112" t="s">
+        <v>192</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E112" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F112" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C113" t="s">
         <v>58</v>
       </c>
       <c r="D113" t="s">
+        <v>194</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E113" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C114" t="s">
         <v>58</v>
       </c>
       <c r="D114" t="s">
+        <v>196</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E114" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F114" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C115" t="s">
         <v>58</v>
       </c>
       <c r="D115" t="s">
-        <v>199</v>
-      </c>
-      <c r="E115" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F115" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C116" t="s">
         <v>58</v>
       </c>
       <c r="D116" t="s">
-        <v>200</v>
-      </c>
-      <c r="E116" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F116" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>185</v>
       </c>
       <c r="B117" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C117" t="s">
         <v>58</v>
       </c>
       <c r="D117" t="s">
-        <v>202</v>
-      </c>
-      <c r="E117" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F117" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>185</v>
       </c>
       <c r="B118" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C118" t="s">
         <v>58</v>
       </c>
       <c r="D118" t="s">
-        <v>204</v>
-      </c>
-      <c r="E118" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>185</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C119" t="s">
         <v>58</v>
       </c>
       <c r="D119" t="s">
-        <v>205</v>
-      </c>
-      <c r="E119" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>185</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C120" t="s">
         <v>58</v>
       </c>
       <c r="D120" t="s">
-        <v>206</v>
-      </c>
-      <c r="E120" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>185</v>
       </c>
       <c r="B121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C121" t="s">
         <v>58</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
-      </c>
-      <c r="E121" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F121" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>185</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
         <v>58</v>
       </c>
       <c r="D122" t="s">
-        <v>209</v>
-      </c>
-      <c r="E122" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F122" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>185</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C123" t="s">
         <v>58</v>
       </c>
       <c r="D123" t="s">
-        <v>211</v>
-      </c>
-      <c r="E123" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F123" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C124" t="s">
         <v>58</v>
       </c>
       <c r="D124" t="s">
-        <v>213</v>
-      </c>
-      <c r="E124" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>185</v>
       </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
         <v>58</v>
       </c>
       <c r="D125" t="s">
-        <v>214</v>
-      </c>
-      <c r="E125" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F125" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C126" t="s">
         <v>58</v>
       </c>
       <c r="D126" t="s">
-        <v>215</v>
-      </c>
-      <c r="E126" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F126" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C127" t="s">
         <v>58</v>
       </c>
       <c r="D127" t="s">
-        <v>217</v>
-      </c>
-      <c r="E127" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F127" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C128" t="s">
         <v>58</v>
       </c>
       <c r="D128" t="s">
-        <v>218</v>
-      </c>
-      <c r="E128" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F128" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
@@ -4170,16 +4245,16 @@
         <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C129" t="s">
         <v>58</v>
       </c>
       <c r="D129" t="s">
-        <v>220</v>
-      </c>
-      <c r="E129" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
@@ -4187,16 +4262,16 @@
         <v>185</v>
       </c>
       <c r="B130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C130" t="s">
         <v>58</v>
       </c>
       <c r="D130" t="s">
-        <v>221</v>
-      </c>
-      <c r="E130" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
@@ -4204,16 +4279,16 @@
         <v>185</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C131" t="s">
         <v>58</v>
       </c>
       <c r="D131" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E131" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
@@ -4221,16 +4296,16 @@
         <v>185</v>
       </c>
       <c r="B132" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C132" t="s">
         <v>58</v>
       </c>
       <c r="D132" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E132" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
@@ -4238,16 +4313,16 @@
         <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C133" t="s">
         <v>58</v>
       </c>
       <c r="D133" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E133" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
@@ -4255,16 +4330,16 @@
         <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C134" t="s">
         <v>58</v>
       </c>
       <c r="D134" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E134" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
@@ -4272,16 +4347,16 @@
         <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
         <v>58</v>
       </c>
       <c r="D135" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E135" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
@@ -4289,16 +4364,16 @@
         <v>185</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" t="s">
         <v>58</v>
       </c>
       <c r="D136" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E136" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
@@ -4306,16 +4381,16 @@
         <v>185</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
         <v>58</v>
       </c>
       <c r="D137" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E137" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
@@ -4323,16 +4398,16 @@
         <v>185</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C138" t="s">
         <v>58</v>
       </c>
       <c r="D138" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E138" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
@@ -4340,16 +4415,16 @@
         <v>185</v>
       </c>
       <c r="B139" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C139" t="s">
         <v>58</v>
       </c>
       <c r="D139" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E139" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
@@ -4357,16 +4432,16 @@
         <v>185</v>
       </c>
       <c r="B140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C140" t="s">
         <v>58</v>
       </c>
       <c r="D140" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E140" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
@@ -4374,16 +4449,16 @@
         <v>185</v>
       </c>
       <c r="B141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C141" t="s">
         <v>58</v>
       </c>
       <c r="D141" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E141" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
@@ -4391,16 +4466,16 @@
         <v>185</v>
       </c>
       <c r="B142" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C142" t="s">
         <v>58</v>
       </c>
       <c r="D142" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E142" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
@@ -4408,16 +4483,16 @@
         <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C143" t="s">
         <v>58</v>
       </c>
       <c r="D143" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E143" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
@@ -4425,16 +4500,16 @@
         <v>185</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C144" t="s">
         <v>58</v>
       </c>
       <c r="D144" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E144" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
@@ -4442,16 +4517,16 @@
         <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C145" t="s">
         <v>58</v>
       </c>
       <c r="D145" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E145" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
@@ -4459,16 +4534,16 @@
         <v>185</v>
       </c>
       <c r="B146" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C146" t="s">
         <v>58</v>
       </c>
       <c r="D146" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E146" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
@@ -4476,16 +4551,16 @@
         <v>185</v>
       </c>
       <c r="B147" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C147" t="s">
         <v>58</v>
       </c>
       <c r="D147" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E147" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
@@ -4499,7 +4574,7 @@
         <v>66</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F148" s="1"/>
     </row>
@@ -4514,7 +4589,7 @@
         <v>66</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F149" s="1"/>
     </row>
@@ -4529,7 +4604,7 @@
         <v>66</v>
       </c>
       <c r="E150" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
@@ -4543,7 +4618,7 @@
         <v>66</v>
       </c>
       <c r="E151" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
@@ -4557,7 +4632,7 @@
         <v>66</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F152" s="1"/>
     </row>
@@ -4572,7 +4647,7 @@
         <v>66</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F153" s="1"/>
     </row>
@@ -4587,7 +4662,7 @@
         <v>66</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F154" s="1"/>
     </row>
@@ -4602,7 +4677,7 @@
         <v>66</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F155" s="1"/>
     </row>
@@ -4617,7 +4692,7 @@
         <v>66</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F156" s="1"/>
     </row>
@@ -4632,7 +4707,7 @@
         <v>66</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F157" s="1"/>
     </row>
@@ -4647,7 +4722,7 @@
         <v>66</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F158" s="1"/>
     </row>
@@ -4662,7 +4737,7 @@
         <v>66</v>
       </c>
       <c r="E159" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
@@ -4676,7 +4751,7 @@
         <v>66</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F160" s="1"/>
     </row>
@@ -4691,7 +4766,7 @@
         <v>66</v>
       </c>
       <c r="E161" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
@@ -4705,7 +4780,7 @@
         <v>66</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F162" s="1"/>
     </row>
@@ -4720,7 +4795,7 @@
         <v>66</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F163" s="1"/>
     </row>
@@ -4735,7 +4810,7 @@
         <v>66</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F164" s="1"/>
     </row>
@@ -4750,7 +4825,7 @@
         <v>66</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F165" s="1"/>
     </row>
@@ -4765,7 +4840,7 @@
         <v>66</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F166" s="1"/>
     </row>
@@ -4780,7 +4855,7 @@
         <v>66</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F167" s="1"/>
     </row>
@@ -4795,7 +4870,7 @@
         <v>66</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F168" s="1"/>
     </row>
@@ -4810,7 +4885,7 @@
         <v>66</v>
       </c>
       <c r="E169" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -4824,7 +4899,7 @@
         <v>66</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F170" s="1"/>
     </row>
@@ -4839,7 +4914,7 @@
         <v>66</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F171" s="1"/>
     </row>
@@ -4848,16 +4923,16 @@
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C172" t="s">
         <v>160</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
@@ -4865,16 +4940,16 @@
         <v>158</v>
       </c>
       <c r="B173" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C173" t="s">
         <v>160</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
@@ -4882,16 +4957,16 @@
         <v>158</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C174" t="s">
         <v>160</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
@@ -4899,16 +4974,16 @@
         <v>158</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C175" t="s">
         <v>160</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
@@ -4916,16 +4991,16 @@
         <v>158</v>
       </c>
       <c r="B176" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C176" t="s">
         <v>160</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.45">
@@ -4939,10 +5014,10 @@
         <v>44</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.45">
@@ -4956,10 +5031,10 @@
         <v>44</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.45">
@@ -4973,10 +5048,10 @@
         <v>44</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.45">
@@ -4990,7 +5065,7 @@
         <v>44</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F180" s="1"/>
     </row>
@@ -5005,10 +5080,10 @@
         <v>44</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.45">
@@ -5022,10 +5097,10 @@
         <v>44</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.45">
@@ -5039,10 +5114,10 @@
         <v>44</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.45">
@@ -5056,7 +5131,7 @@
         <v>44</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F184" s="1"/>
     </row>
@@ -5071,7 +5146,7 @@
         <v>44</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F185" s="1"/>
     </row>
@@ -5086,10 +5161,10 @@
         <v>44</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.45">
@@ -5103,10 +5178,10 @@
         <v>44</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.45">
@@ -5120,10 +5195,10 @@
         <v>44</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.45">
@@ -5137,10 +5212,10 @@
         <v>44</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I189" s="7"/>
     </row>
@@ -5155,10 +5230,10 @@
         <v>66</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F190" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.45">
@@ -5172,10 +5247,10 @@
         <v>66</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F191" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.45">
@@ -5189,10 +5264,10 @@
         <v>66</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F192" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
@@ -5206,10 +5281,10 @@
         <v>66</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F193" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
@@ -5223,10 +5298,10 @@
         <v>66</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F194" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
@@ -5240,7 +5315,7 @@
         <v>66</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
@@ -5254,10 +5329,10 @@
         <v>66</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F196" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
@@ -5271,7 +5346,7 @@
         <v>66</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
@@ -5285,10 +5360,10 @@
         <v>66</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F198" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -5302,7 +5377,7 @@
         <v>66</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -5316,7 +5391,7 @@
         <v>66</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -5330,10 +5405,10 @@
         <v>66</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
@@ -5347,10 +5422,10 @@
         <v>66</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
@@ -5364,7 +5439,7 @@
         <v>66</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -5378,10 +5453,10 @@
         <v>66</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5505,10 +5580,30 @@
     <hyperlink ref="E202" r:id="rId117" xr:uid="{1572F9E4-71EF-44AE-983F-64F9427C9947}"/>
     <hyperlink ref="E203" r:id="rId118" xr:uid="{25C2AEEC-894F-4508-BB44-4018E6A7A663}"/>
     <hyperlink ref="E204" r:id="rId119" xr:uid="{A164F64D-623F-4CE9-ABA2-B9258C253145}"/>
+    <hyperlink ref="E111" r:id="rId120" xr:uid="{6F199FF7-ACEC-49A2-9C9E-66790AF0DE66}"/>
+    <hyperlink ref="E112" r:id="rId121" xr:uid="{67C6DF2B-FA67-414D-8025-E4EBDAEF4FAA}"/>
+    <hyperlink ref="E113" r:id="rId122" xr:uid="{F7CE37F3-1FDB-4539-9CA9-D71E8F2DC580}"/>
+    <hyperlink ref="E114" r:id="rId123" xr:uid="{718018A1-B331-437A-BB92-BD7B7D9387F7}"/>
+    <hyperlink ref="E115" r:id="rId124" xr:uid="{687B38E4-5E39-4088-A9C2-3C5E0A2D5BAF}"/>
+    <hyperlink ref="E116" r:id="rId125" xr:uid="{E1790F7A-7419-4D23-B994-7191789C869C}"/>
+    <hyperlink ref="E117" r:id="rId126" xr:uid="{828E0D17-37C8-4426-8453-FC676F90277D}"/>
+    <hyperlink ref="E118" r:id="rId127" xr:uid="{A0C998B7-C622-4516-9DB9-ABDC5C1176ED}"/>
+    <hyperlink ref="E119" r:id="rId128" xr:uid="{5A5BA183-8B30-4DF7-A5B5-A2597304FD53}"/>
+    <hyperlink ref="E120" r:id="rId129" xr:uid="{48D9B166-61B1-4C2C-AFB8-475F39628522}"/>
+    <hyperlink ref="E121" r:id="rId130" xr:uid="{4DFB88E7-8A98-4B29-A985-CD58728D28A7}"/>
+    <hyperlink ref="E122" r:id="rId131" xr:uid="{E1B03E93-B8C5-408E-96B2-6D4BB63C89D8}"/>
+    <hyperlink ref="E123" r:id="rId132" xr:uid="{7CA0A859-4937-4447-9DD9-66DD094E3BA2}"/>
+    <hyperlink ref="E124" r:id="rId133" xr:uid="{34A996D0-72D0-460E-B826-E289DAE314A2}"/>
+    <hyperlink ref="E125" r:id="rId134" xr:uid="{A42A69E2-0648-45F1-9088-BA63A0AEB05E}"/>
+    <hyperlink ref="E126" r:id="rId135" xr:uid="{0F7B2CFE-B04E-4CC7-BA41-FEE1C21A4220}"/>
+    <hyperlink ref="E127" r:id="rId136" xr:uid="{BEF54759-928C-4906-BFAE-6D198F1ADAFE}"/>
+    <hyperlink ref="E128" r:id="rId137" xr:uid="{AAA7C554-8627-4B49-96A5-425B1650342F}"/>
+    <hyperlink ref="E129" r:id="rId138" xr:uid="{A914B10F-56D6-4593-A815-1CAFDCB3C43F}"/>
+    <hyperlink ref="E130" r:id="rId139" xr:uid="{94C166FD-A42E-4971-A136-8C6BDEA330FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId120"/>
+    <tablePart r:id="rId140"/>
   </tableParts>
 </worksheet>
 </file>

--- a/giorgia/filtering_DH_institutions_from_links.xlsx
+++ b/giorgia/filtering_DH_institutions_from_links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crosi\Documents\GitHub\Vita-e-morte-DH-projects\giorgia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEAEA0D-DBA4-45BB-8F00-09789A597296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A76BD6A-F664-4015-BC78-F88C73A8359D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="11686" windowHeight="13763" xr2:uid="{DA4FCA1B-1D56-46B8-9FAB-A51998706F66}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="444">
   <si>
     <t>categoria</t>
   </si>
@@ -724,9 +724,6 @@
     <t>atlas</t>
   </si>
   <si>
-    <t>https://www.ilc.cnr.it/progetti/atlas/</t>
-  </si>
-  <si>
     <t>https://www.ilc.cnr.it/progetti/progetto-rut/</t>
   </si>
   <si>
@@ -748,12 +745,6 @@
     <t>https://www.ilc.cnr.it/progetti/triplo-plus-2/</t>
   </si>
   <si>
-    <t>gra.fo reloaded</t>
-  </si>
-  <si>
-    <t>https://www.ilc.cnr.it/progetti/gra-fo-reloaded/</t>
-  </si>
-  <si>
     <t>https://www.ilc.cnr.it/progetti/itant/</t>
   </si>
   <si>
@@ -781,24 +772,9 @@
     <t>https://www.ilc.cnr.it/progetti/diversita-religiosa/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://db.biblhertz.it/siena/siena.xql ; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wissensgeschichte.biblhertz.it/3d-bridge-html/index3D.html ; </t>
-  </si>
-  <si>
-    <t>https://dlib.biblhertz.it/ ;</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://editions.humanitiesconnect.pub/exist/apps/hwgw/index.html </t>
   </si>
   <si>
-    <t xml:space="preserve">https://dlib.biblhertz.it/spatial/#15.96/41.895619/12.477807/20 ; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cipro.biblhertz.it/ ; </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://fm.biblhertz.it/fmi/xsl/home.xsl?-token.proj=li </t>
   </si>
   <si>
@@ -814,9 +790,6 @@
     <t xml:space="preserve">https://pharosartresearch.org/ </t>
   </si>
   <si>
-    <t xml:space="preserve">https://data.biblhertz.it/ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://echaurren.biblhertz.it/PE.html</t>
   </si>
   <si>
@@ -845,9 +818,6 @@
   </si>
   <si>
     <t xml:space="preserve"> https://staccioli.biblhertz.it/resource/Default:Start </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://biblhertz.github.io/atlas/ </t>
   </si>
   <si>
     <t>https://maps.biblhertz.it/gis/precat</t>
@@ -1341,6 +1311,84 @@
   </si>
   <si>
     <t>https://www.skills4eosc.eu/</t>
+  </si>
+  <si>
+    <t>https://dh-atlas.github.io/</t>
+  </si>
+  <si>
+    <t>https://fondazionerut.org/</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/view/horizoneurope2020-starwars/</t>
+  </si>
+  <si>
+    <t>https://www.raiseliguria.it/</t>
+  </si>
+  <si>
+    <t>https://www.talmud.it/</t>
+  </si>
+  <si>
+    <t>traduzione</t>
+  </si>
+  <si>
+    <t>https://interreg-maritime.eu/it/web/triplo-plus/progetto</t>
+  </si>
+  <si>
+    <t>https://www.clarin-it.it/it/content/archivio-vivo</t>
+  </si>
+  <si>
+    <t>vivo</t>
+  </si>
+  <si>
+    <t>conservazione archivi orali</t>
+  </si>
+  <si>
+    <t>https://www.prin-italia-antica.unifi.it/index.html?newlang=eng</t>
+  </si>
+  <si>
+    <t>https://www.monksoftware.it/it/dh4h</t>
+  </si>
+  <si>
+    <t>software che abiliti gli ingegneri biomedici nello sviluppo rapido di applicazioni web</t>
+  </si>
+  <si>
+    <t>https://lithme.eu/</t>
+  </si>
+  <si>
+    <t>https://tailor-network.eu/</t>
+  </si>
+  <si>
+    <t>platform for history of optics</t>
+  </si>
+  <si>
+    <t>glossario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://biblhertz.github.io/atlas/  </t>
+  </si>
+  <si>
+    <t>digital atlas of gesture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wissensgeschichte.biblhertz.it/3d-bridge-html/index3D.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://db.biblhertz.it/siena/siena.xql </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dlib.biblhertz.it/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dlib.biblhertz.it/spatial/#15.96/41.895619/12.477807/20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cipro.biblhertz.it/ </t>
+  </si>
+  <si>
+    <t>banca dati</t>
+  </si>
+  <si>
+    <t>catalogo illustrato</t>
   </si>
 </sst>
 </file>
@@ -1806,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A0B48E-5133-44BB-8BE0-59B26DE9E52C}">
   <dimension ref="A2:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E111" zoomScale="76" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="39" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1836,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1853,10 +1901,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1876,7 +1924,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1890,13 +1938,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1916,7 +1964,7 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1936,7 +1984,7 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1950,13 +1998,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1976,7 +2024,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1990,13 +2038,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -2010,13 +2058,13 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -2036,7 +2084,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -2056,7 +2104,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -2076,7 +2124,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -2096,7 +2144,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -2110,13 +2158,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E16" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -2136,7 +2184,7 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -2156,7 +2204,7 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -2176,7 +2224,7 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -2196,7 +2244,7 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -2216,7 +2264,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -2230,13 +2278,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E22" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -2256,7 +2304,7 @@
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -2276,7 +2324,7 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -2307,13 +2355,13 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F26" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -2333,7 +2381,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -2353,7 +2401,7 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -2373,7 +2421,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -2410,7 +2458,7 @@
         <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -2430,7 +2478,7 @@
         <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -2450,7 +2498,7 @@
         <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -2470,7 +2518,7 @@
         <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -2487,10 +2535,10 @@
         <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F35" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -2507,10 +2555,10 @@
         <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -2527,10 +2575,10 @@
         <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2564,10 +2612,10 @@
         <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F39" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -2584,10 +2632,10 @@
         <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F40" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -2607,7 +2655,7 @@
         <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -2661,7 +2709,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -2763,10 +2811,10 @@
         <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F50" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2783,10 +2831,10 @@
         <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2803,10 +2851,10 @@
         <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F52" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2823,7 +2871,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -3030,7 +3078,7 @@
         <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -3050,7 +3098,7 @@
         <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -3070,7 +3118,7 @@
         <v>118</v>
       </c>
       <c r="F67" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -3124,7 +3172,7 @@
         <v>121</v>
       </c>
       <c r="F70" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -3144,7 +3192,7 @@
         <v>122</v>
       </c>
       <c r="F71" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -3164,7 +3212,7 @@
         <v>123</v>
       </c>
       <c r="F72" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -3212,13 +3260,13 @@
         <v>127</v>
       </c>
       <c r="D75" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -3235,18 +3283,18 @@
         <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F76" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E77" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F77" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -3263,10 +3311,10 @@
         <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F78" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -3286,7 +3334,7 @@
         <v>131</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -3324,7 +3372,7 @@
         <v>136</v>
       </c>
       <c r="F81" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -3344,7 +3392,7 @@
         <v>138</v>
       </c>
       <c r="F82" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -3364,7 +3412,7 @@
         <v>139</v>
       </c>
       <c r="F83" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -3384,7 +3432,7 @@
         <v>140</v>
       </c>
       <c r="F84" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -3404,7 +3452,7 @@
         <v>141</v>
       </c>
       <c r="F85" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -3441,7 +3489,7 @@
         <v>147</v>
       </c>
       <c r="F87" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -3461,7 +3509,7 @@
         <v>149</v>
       </c>
       <c r="F88" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -3498,7 +3546,7 @@
         <v>153</v>
       </c>
       <c r="F90" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -3535,7 +3583,7 @@
         <v>157</v>
       </c>
       <c r="F92" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
@@ -3552,10 +3600,10 @@
         <v>161</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F93" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -3575,7 +3623,7 @@
         <v>163</v>
       </c>
       <c r="F94" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -3592,10 +3640,10 @@
         <v>164</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F95" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -3615,7 +3663,7 @@
         <v>166</v>
       </c>
       <c r="F96" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -3635,7 +3683,7 @@
         <v>168</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -3652,10 +3700,10 @@
         <v>169</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F98" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -3672,10 +3720,10 @@
         <v>170</v>
       </c>
       <c r="E99" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F99" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
@@ -3695,7 +3743,7 @@
         <v>172</v>
       </c>
       <c r="F100" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
@@ -3715,7 +3763,7 @@
         <v>174</v>
       </c>
       <c r="F101" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
@@ -3732,10 +3780,10 @@
         <v>178</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F102" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -3752,10 +3800,10 @@
         <v>179</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F103" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -3775,7 +3823,7 @@
         <v>180</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -3795,7 +3843,7 @@
         <v>181</v>
       </c>
       <c r="F105" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -3812,13 +3860,13 @@
         <v>182</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F106" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="I106" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
@@ -3835,10 +3883,10 @@
         <v>183</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F107" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -3855,13 +3903,13 @@
         <v>184</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F108" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H108" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -3906,7 +3954,7 @@
         <v>191</v>
       </c>
       <c r="F111" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -3926,7 +3974,7 @@
         <v>193</v>
       </c>
       <c r="F112" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
@@ -3946,7 +3994,7 @@
         <v>195</v>
       </c>
       <c r="F113" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
@@ -3966,7 +4014,7 @@
         <v>197</v>
       </c>
       <c r="F114" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
@@ -3983,10 +4031,10 @@
         <v>198</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F115" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
@@ -4003,10 +4051,10 @@
         <v>199</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F116" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
@@ -4026,7 +4074,7 @@
         <v>201</v>
       </c>
       <c r="F117" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
@@ -4043,7 +4091,7 @@
         <v>202</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
@@ -4060,7 +4108,7 @@
         <v>203</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
@@ -4077,7 +4125,7 @@
         <v>204</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
@@ -4094,10 +4142,10 @@
         <v>205</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F121" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
@@ -4117,7 +4165,7 @@
         <v>207</v>
       </c>
       <c r="F122" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
@@ -4137,7 +4185,7 @@
         <v>209</v>
       </c>
       <c r="F123" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
@@ -4157,7 +4205,7 @@
         <v>210</v>
       </c>
       <c r="F124" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
@@ -4174,10 +4222,10 @@
         <v>211</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F125" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
@@ -4197,7 +4245,7 @@
         <v>213</v>
       </c>
       <c r="F126" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
@@ -4214,10 +4262,10 @@
         <v>214</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F127" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
@@ -4237,10 +4285,10 @@
         <v>216</v>
       </c>
       <c r="F128" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>185</v>
       </c>
@@ -4257,7 +4305,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>185</v>
       </c>
@@ -4271,10 +4319,10 @@
         <v>218</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>185</v>
       </c>
@@ -4287,11 +4335,14 @@
       <c r="D131" t="s">
         <v>219</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F131" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>185</v>
       </c>
@@ -4304,11 +4355,14 @@
       <c r="D132" t="s">
         <v>221</v>
       </c>
-      <c r="E132" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E132" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F132" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>185</v>
       </c>
@@ -4319,13 +4373,13 @@
         <v>58</v>
       </c>
       <c r="D133" t="s">
-        <v>223</v>
-      </c>
-      <c r="E133" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>185</v>
       </c>
@@ -4336,13 +4390,13 @@
         <v>58</v>
       </c>
       <c r="D134" t="s">
-        <v>224</v>
-      </c>
-      <c r="E134" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>185</v>
       </c>
@@ -4353,13 +4407,13 @@
         <v>58</v>
       </c>
       <c r="D135" t="s">
-        <v>225</v>
-      </c>
-      <c r="E135" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>185</v>
       </c>
@@ -4370,13 +4424,16 @@
         <v>58</v>
       </c>
       <c r="D136" t="s">
-        <v>226</v>
-      </c>
-      <c r="E136" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F136" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>185</v>
       </c>
@@ -4387,13 +4444,16 @@
         <v>58</v>
       </c>
       <c r="D137" t="s">
+        <v>226</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E137" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F137" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>185</v>
       </c>
@@ -4404,13 +4464,13 @@
         <v>58</v>
       </c>
       <c r="D138" t="s">
-        <v>229</v>
-      </c>
-      <c r="E138" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>185</v>
       </c>
@@ -4421,13 +4481,16 @@
         <v>58</v>
       </c>
       <c r="D139" t="s">
-        <v>230</v>
-      </c>
-      <c r="E139" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+        <v>426</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F139" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -4438,13 +4501,13 @@
         <v>58</v>
       </c>
       <c r="D140" t="s">
-        <v>232</v>
-      </c>
-      <c r="E140" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>185</v>
       </c>
@@ -4455,13 +4518,16 @@
         <v>58</v>
       </c>
       <c r="D141" t="s">
-        <v>233</v>
-      </c>
-      <c r="E141" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F141" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>185</v>
       </c>
@@ -4472,13 +4538,13 @@
         <v>58</v>
       </c>
       <c r="D142" t="s">
-        <v>234</v>
-      </c>
-      <c r="E142" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>185</v>
       </c>
@@ -4489,13 +4555,16 @@
         <v>58</v>
       </c>
       <c r="D143" t="s">
-        <v>235</v>
-      </c>
-      <c r="E143" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F143" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>185</v>
       </c>
@@ -4506,10 +4575,10 @@
         <v>58</v>
       </c>
       <c r="D144" t="s">
-        <v>236</v>
-      </c>
-      <c r="E144" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
@@ -4523,10 +4592,13 @@
         <v>58</v>
       </c>
       <c r="D145" t="s">
-        <v>237</v>
-      </c>
-      <c r="E145" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F145" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
@@ -4540,10 +4612,13 @@
         <v>58</v>
       </c>
       <c r="D146" t="s">
-        <v>239</v>
-      </c>
-      <c r="E146" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F146" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
@@ -4557,10 +4632,13 @@
         <v>58</v>
       </c>
       <c r="D147" t="s">
-        <v>240</v>
-      </c>
-      <c r="E147" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F147" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
@@ -4574,9 +4652,11 @@
         <v>66</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F148" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
@@ -4588,9 +4668,7 @@
       <c r="C149" t="s">
         <v>66</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>252</v>
-      </c>
+      <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
@@ -4604,7 +4682,10 @@
         <v>66</v>
       </c>
       <c r="E150" t="s">
-        <v>253</v>
+        <v>244</v>
+      </c>
+      <c r="F150" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
@@ -4618,7 +4699,10 @@
         <v>66</v>
       </c>
       <c r="E151" t="s">
-        <v>248</v>
+        <v>240</v>
+      </c>
+      <c r="F151" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
@@ -4632,7 +4716,7 @@
         <v>66</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F152" s="1"/>
     </row>
@@ -4647,9 +4731,11 @@
         <v>66</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F153" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
@@ -4662,7 +4748,7 @@
         <v>66</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F154" s="1"/>
     </row>
@@ -4677,9 +4763,11 @@
         <v>66</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F155" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
@@ -4692,7 +4780,7 @@
         <v>66</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F156" s="1"/>
     </row>
@@ -4707,9 +4795,11 @@
         <v>66</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F157" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
@@ -4722,9 +4812,11 @@
         <v>66</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F158" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
@@ -4737,7 +4829,10 @@
         <v>66</v>
       </c>
       <c r="E159" t="s">
-        <v>265</v>
+        <v>255</v>
+      </c>
+      <c r="F159" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
@@ -4751,7 +4846,7 @@
         <v>66</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F160" s="1"/>
     </row>
@@ -4766,7 +4861,10 @@
         <v>66</v>
       </c>
       <c r="E161" t="s">
-        <v>263</v>
+        <v>435</v>
+      </c>
+      <c r="F161" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
@@ -4780,9 +4878,11 @@
         <v>66</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F162" s="1"/>
+        <v>438</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
@@ -4795,7 +4895,7 @@
         <v>66</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>242</v>
+        <v>437</v>
       </c>
       <c r="F163" s="1"/>
     </row>
@@ -4810,9 +4910,11 @@
         <v>66</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F164" s="1"/>
+        <v>439</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
@@ -4825,7 +4927,7 @@
         <v>66</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>245</v>
+        <v>440</v>
       </c>
       <c r="F165" s="1"/>
     </row>
@@ -4840,9 +4942,11 @@
         <v>66</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F166" s="1"/>
+        <v>441</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
@@ -4855,9 +4959,11 @@
         <v>66</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F167" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
@@ -4870,7 +4976,7 @@
         <v>66</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F168" s="1"/>
     </row>
@@ -4885,7 +4991,7 @@
         <v>66</v>
       </c>
       <c r="E169" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -4899,7 +5005,7 @@
         <v>66</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F170" s="1"/>
     </row>
@@ -4914,7 +5020,7 @@
         <v>66</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F171" s="1"/>
     </row>
@@ -4923,16 +5029,16 @@
         <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C172" t="s">
         <v>160</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
@@ -4940,16 +5046,16 @@
         <v>158</v>
       </c>
       <c r="B173" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C173" t="s">
         <v>160</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
@@ -4957,16 +5063,16 @@
         <v>158</v>
       </c>
       <c r="B174" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C174" t="s">
         <v>160</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
@@ -4974,16 +5080,16 @@
         <v>158</v>
       </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C175" t="s">
         <v>160</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
@@ -4991,16 +5097,16 @@
         <v>158</v>
       </c>
       <c r="B176" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C176" t="s">
         <v>160</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.45">
@@ -5014,10 +5120,10 @@
         <v>44</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.45">
@@ -5031,10 +5137,10 @@
         <v>44</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.45">
@@ -5048,10 +5154,10 @@
         <v>44</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.45">
@@ -5065,7 +5171,7 @@
         <v>44</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F180" s="1"/>
     </row>
@@ -5080,10 +5186,10 @@
         <v>44</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.45">
@@ -5097,10 +5203,10 @@
         <v>44</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.45">
@@ -5114,10 +5220,10 @@
         <v>44</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.45">
@@ -5131,7 +5237,7 @@
         <v>44</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F184" s="1"/>
     </row>
@@ -5146,7 +5252,7 @@
         <v>44</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F185" s="1"/>
     </row>
@@ -5161,10 +5267,10 @@
         <v>44</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.45">
@@ -5178,10 +5284,10 @@
         <v>44</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.45">
@@ -5195,10 +5301,10 @@
         <v>44</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.45">
@@ -5212,10 +5318,10 @@
         <v>44</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="I189" s="7"/>
     </row>
@@ -5230,10 +5336,10 @@
         <v>66</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F190" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.45">
@@ -5247,10 +5353,10 @@
         <v>66</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F191" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.45">
@@ -5264,10 +5370,10 @@
         <v>66</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
@@ -5281,10 +5387,10 @@
         <v>66</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F193" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
@@ -5298,10 +5404,10 @@
         <v>66</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
@@ -5315,7 +5421,7 @@
         <v>66</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
@@ -5329,10 +5435,10 @@
         <v>66</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
@@ -5346,7 +5452,7 @@
         <v>66</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
@@ -5360,10 +5466,10 @@
         <v>66</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -5377,7 +5483,7 @@
         <v>66</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -5391,7 +5497,7 @@
         <v>66</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -5405,10 +5511,10 @@
         <v>66</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F201" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
@@ -5422,10 +5528,10 @@
         <v>66</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F202" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
@@ -5439,7 +5545,7 @@
         <v>66</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
@@ -5453,10 +5559,10 @@
         <v>66</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5468,7 +5574,7 @@
     <hyperlink ref="E157" r:id="rId5" xr:uid="{113B6FFD-796D-4005-BD03-9A260231C721}"/>
     <hyperlink ref="E156" r:id="rId6" location="14.29/41.89547/12.46792/17.7 " xr:uid="{AC6BDF8D-46C5-44C9-A3F8-8EA358434011}"/>
     <hyperlink ref="E155" r:id="rId7" xr:uid="{EF9F052D-5CAB-4EEC-BEF3-77DF3EA04DC1}"/>
-    <hyperlink ref="E165" r:id="rId8" location="15.96/41.895619/12.477807/20 ; " xr:uid="{68F881AB-B886-4CCA-8FB7-5B5BEA5D2B88}"/>
+    <hyperlink ref="E165" r:id="rId8" location="15.96/41.895619/12.477807/20 " xr:uid="{68F881AB-B886-4CCA-8FB7-5B5BEA5D2B88}"/>
     <hyperlink ref="E154" r:id="rId9" xr:uid="{774C874A-0F4E-4A51-AB1D-5B899F7362FE}"/>
     <hyperlink ref="E153" r:id="rId10" xr:uid="{70FF4082-29EC-4C63-829B-842D883039D7}"/>
     <hyperlink ref="E166" r:id="rId11" xr:uid="{3A793549-D26B-45E9-8569-5E22FD77AEB5}"/>
@@ -5479,131 +5585,147 @@
     <hyperlink ref="E175" r:id="rId16" xr:uid="{95B66F08-FBC1-4077-9051-2EBC703731AE}"/>
     <hyperlink ref="E174" r:id="rId17" xr:uid="{2C95CB2C-1BF1-4AA7-9F22-156636365ED5}"/>
     <hyperlink ref="E148" r:id="rId18" xr:uid="{9EA04A47-43E5-45D2-88E1-39CC3A65C5FA}"/>
-    <hyperlink ref="E149" r:id="rId19" xr:uid="{3A031500-2559-42AA-A575-BA980DEEB439}"/>
-    <hyperlink ref="E167" r:id="rId20" xr:uid="{CBC0E5C5-25EE-423F-A1AD-03EB6B1A8664}"/>
-    <hyperlink ref="E168" r:id="rId21" xr:uid="{63A43342-B565-432E-BC05-AB681D6D2DE4}"/>
-    <hyperlink ref="E170" r:id="rId22" location="17.35/41.896072/12.482376 " xr:uid="{78343CC2-7CC5-4EFB-A83B-6A60342272DB}"/>
-    <hyperlink ref="E171" r:id="rId23" location="16.5/42.348011/13.397988/-69/26" xr:uid="{C10E8B1E-6445-4CA2-9999-C9472E7B5C2F}"/>
-    <hyperlink ref="E160" r:id="rId24" xr:uid="{AC75BA5F-4590-4C40-B361-5C94CE67404D}"/>
-    <hyperlink ref="E177" r:id="rId25" xr:uid="{215E72C6-5C9A-4E90-A601-68A98DA0F98C}"/>
-    <hyperlink ref="E178" r:id="rId26" xr:uid="{B9BD6DE1-7FF2-43C6-A696-F9FA54B73C90}"/>
-    <hyperlink ref="E179" r:id="rId27" xr:uid="{50F0B83B-BA4A-4A43-8C79-52825C7CAAAC}"/>
-    <hyperlink ref="E180" r:id="rId28" xr:uid="{383DD85F-D337-49BA-B8B6-ACFCDABC0877}"/>
-    <hyperlink ref="E181" r:id="rId29" xr:uid="{26406005-61FF-40A0-B498-21BA02055859}"/>
-    <hyperlink ref="E182" r:id="rId30" xr:uid="{B150E991-50AC-433D-80E2-9E2794DB0AF0}"/>
-    <hyperlink ref="E183" r:id="rId31" xr:uid="{F714AC7F-0632-48FC-AAEE-20A2D66AA953}"/>
-    <hyperlink ref="E184" r:id="rId32" xr:uid="{CD2CF505-1C72-4E13-A713-DC01EB068700}"/>
-    <hyperlink ref="E185" r:id="rId33" xr:uid="{1622929D-F3B4-48E2-AF31-CB735E4303B2}"/>
-    <hyperlink ref="E186" r:id="rId34" xr:uid="{D0A742C1-DEFB-43CC-B0E0-2B6B850483CB}"/>
-    <hyperlink ref="E187" r:id="rId35" xr:uid="{0094309A-2744-42C2-AB56-E92472E363CF}"/>
-    <hyperlink ref="E188" r:id="rId36" xr:uid="{C24718AF-DCF4-4011-856C-BF56163CADCF}"/>
-    <hyperlink ref="E189" r:id="rId37" xr:uid="{DB4CF26D-6CF7-48C1-98F8-8745DDC04A36}"/>
-    <hyperlink ref="E3" r:id="rId38" xr:uid="{49D32165-E8EC-4464-8883-DE53CAB943E1}"/>
-    <hyperlink ref="E4" r:id="rId39" xr:uid="{44DEF95A-A75D-483E-A06C-FCC9B947E5DE}"/>
-    <hyperlink ref="E5" r:id="rId40" xr:uid="{974B7FD6-F3E0-43F6-BCBD-1254A8D249AC}"/>
-    <hyperlink ref="E10" r:id="rId41" xr:uid="{365FE5B1-3320-4DF3-A7CF-268A1DE6E079}"/>
-    <hyperlink ref="E11" r:id="rId42" xr:uid="{1FDDD609-4249-4AC6-84C3-6B1F35DCB348}"/>
-    <hyperlink ref="E12" r:id="rId43" xr:uid="{7DEDE054-9F12-4F58-82E6-975FEB23E41A}"/>
-    <hyperlink ref="E26" r:id="rId44" xr:uid="{4217E684-DDCE-48F3-AE7B-B572DC57ADF1}"/>
-    <hyperlink ref="E28" r:id="rId45" xr:uid="{76A47469-A3DA-4C3D-9E2D-A4EC64AD4623}"/>
-    <hyperlink ref="E29" r:id="rId46" xr:uid="{A2E25F96-B338-4E65-BA1F-AAC68D0A993B}"/>
-    <hyperlink ref="E30" r:id="rId47" xr:uid="{C42C50D1-881D-42CD-B4D3-3351B0BD42F7}"/>
-    <hyperlink ref="E31" r:id="rId48" xr:uid="{C6ECEA9C-AD22-4A04-A4B9-3820EFD26202}"/>
-    <hyperlink ref="E32" r:id="rId49" xr:uid="{1AEAA9B5-D4AE-44B7-93FC-CB728B1F2209}"/>
-    <hyperlink ref="E33" r:id="rId50" xr:uid="{29EAE7D1-02BE-46E7-9EFF-F19BFB9D9CD3}"/>
-    <hyperlink ref="E34" r:id="rId51" xr:uid="{8B87E118-3424-4FA4-B52E-8787978B36A9}"/>
-    <hyperlink ref="E35" r:id="rId52" xr:uid="{51D1B5AE-8875-4FD5-8E81-7600B9ED65B8}"/>
-    <hyperlink ref="E36" r:id="rId53" xr:uid="{6C998B8E-2614-4242-9039-4848BA15AFB1}"/>
-    <hyperlink ref="E37" r:id="rId54" xr:uid="{F08A1CE1-1D5B-4BDA-834B-4E3B1D15107A}"/>
-    <hyperlink ref="E38" r:id="rId55" xr:uid="{E5CC4433-500F-486C-9D51-AD814D9674E4}"/>
-    <hyperlink ref="E39" r:id="rId56" xr:uid="{B1859688-2829-4FEE-9E92-FA9F3155ACDA}"/>
-    <hyperlink ref="E40" r:id="rId57" xr:uid="{90569A41-0A03-4FDC-869F-84BDCB4E63E6}"/>
-    <hyperlink ref="E41" r:id="rId58" xr:uid="{5BE2009A-1327-4072-B68E-320BA45FE8CF}"/>
-    <hyperlink ref="E43" r:id="rId59" xr:uid="{1A1E876E-16C4-4EED-8AE3-3E5381715F77}"/>
-    <hyperlink ref="E44" r:id="rId60" xr:uid="{363732FD-2ECB-483D-8D8A-9CC0D1B25EE1}"/>
-    <hyperlink ref="E45" r:id="rId61" xr:uid="{46BB2313-8018-40D8-A772-C6997A9430D6}"/>
-    <hyperlink ref="E46" r:id="rId62" xr:uid="{472D6E00-6404-4771-BD4D-525866C2B69B}"/>
-    <hyperlink ref="E47" r:id="rId63" xr:uid="{B496A2AB-9973-4205-B3C7-072A5FF6865D}"/>
-    <hyperlink ref="E48" r:id="rId64" xr:uid="{6D760637-9471-499E-96D4-EF6716A5D6E9}"/>
-    <hyperlink ref="E49" r:id="rId65" xr:uid="{E491B672-CDAA-49DD-BA9C-406FC826C08E}"/>
-    <hyperlink ref="E50" r:id="rId66" xr:uid="{07444256-0117-4F81-8838-C941D99A2BF6}"/>
-    <hyperlink ref="E51" r:id="rId67" xr:uid="{17987393-24EA-4061-81FE-D88C0FCBE80E}"/>
-    <hyperlink ref="E52" r:id="rId68" xr:uid="{70DCC87D-B22B-4EDA-8829-EA339498F308}"/>
-    <hyperlink ref="E53" r:id="rId69" xr:uid="{531559C3-48B1-4311-9B8A-109D118668B9}"/>
-    <hyperlink ref="E65" r:id="rId70" xr:uid="{A1E54A28-E747-48FD-A2CF-6DB0D6FBCFF3}"/>
-    <hyperlink ref="E66" r:id="rId71" xr:uid="{90A60712-CD03-4D15-8385-809834C72182}"/>
-    <hyperlink ref="E68" r:id="rId72" xr:uid="{A130A949-2BBB-48A3-93C3-66E1AB6A6B5A}"/>
-    <hyperlink ref="E70" r:id="rId73" xr:uid="{14D5FC19-57C9-4589-86DA-44A2065E74C6}"/>
-    <hyperlink ref="E71" r:id="rId74" xr:uid="{78DC93BA-B80D-48D7-BCD9-4CED140A1D12}"/>
-    <hyperlink ref="E73" r:id="rId75" xr:uid="{850DBAC6-3111-44FF-BF26-7F9735CE0365}"/>
-    <hyperlink ref="E74" r:id="rId76" xr:uid="{1AAC861C-A244-4B33-89D3-6995E5348ADE}"/>
-    <hyperlink ref="E75" r:id="rId77" location="page-top" xr:uid="{EFC4999B-FC88-4E3A-84C5-49C0D3C35DCB}"/>
-    <hyperlink ref="E76" r:id="rId78" xr:uid="{86D19F26-F914-4666-A301-0F6957241E4A}"/>
-    <hyperlink ref="E78" r:id="rId79" xr:uid="{2EF072F5-0C9B-4E7A-A27A-B34C70B31A8A}"/>
-    <hyperlink ref="E79" r:id="rId80" xr:uid="{27569D59-26B7-43E2-A418-B567C909DAB7}"/>
-    <hyperlink ref="E81" r:id="rId81" xr:uid="{28A8614E-1E16-4074-A547-496F0594E17F}"/>
-    <hyperlink ref="E82" r:id="rId82" xr:uid="{B2468746-17E2-41FE-8754-FCCDF0739371}"/>
-    <hyperlink ref="E83" r:id="rId83" xr:uid="{D1C490CB-BACB-4B80-928C-057D59BD8D38}"/>
-    <hyperlink ref="E84" r:id="rId84" xr:uid="{4C0DB72C-25AB-4427-8232-FF30FD5F4C0E}"/>
-    <hyperlink ref="E85" r:id="rId85" xr:uid="{1BAE776B-D4E4-4945-8848-1DBA21C8880B}"/>
-    <hyperlink ref="E86" r:id="rId86" xr:uid="{515AD6CA-A1C7-4F67-B339-0EC6ABEDED07}"/>
-    <hyperlink ref="E87" r:id="rId87" xr:uid="{BFA473BB-AE9F-4FDA-B832-E251166CB65C}"/>
-    <hyperlink ref="E88" r:id="rId88" xr:uid="{D175EA31-3ED7-4D81-9506-FC1B40ADC7D9}"/>
-    <hyperlink ref="E89" r:id="rId89" xr:uid="{89C4CD7A-B62F-40FF-A5B8-56C9EAA8877E}"/>
-    <hyperlink ref="E90" r:id="rId90" xr:uid="{8515A4C7-A26F-4881-A80E-1CDA7254F192}"/>
-    <hyperlink ref="E91" r:id="rId91" xr:uid="{CA931B24-3EFE-412F-B96C-CF7EF031C87C}"/>
-    <hyperlink ref="E92" r:id="rId92" xr:uid="{FE0D7FA1-52B6-4445-852C-B4206DF0068E}"/>
-    <hyperlink ref="E93" r:id="rId93" xr:uid="{51F16AB9-5819-496A-B085-25BE90D8C5A0}"/>
-    <hyperlink ref="E94" r:id="rId94" xr:uid="{6AAAC3F3-FE6D-4CBB-8B0D-553DD7B0C68B}"/>
-    <hyperlink ref="E96" r:id="rId95" xr:uid="{B7BBBC47-4F53-4700-A4BF-8CDE76E0A4CA}"/>
-    <hyperlink ref="E97" r:id="rId96" xr:uid="{1C022890-28F5-4667-AC45-EA68FC9FA726}"/>
-    <hyperlink ref="E98" r:id="rId97" xr:uid="{07C7F106-6CB6-46FB-B599-52CFB71890C1}"/>
-    <hyperlink ref="E100" r:id="rId98" xr:uid="{85299AB4-DB35-493C-985F-483D0D7C7568}"/>
-    <hyperlink ref="E102" r:id="rId99" xr:uid="{6859EDB8-9CD2-4579-A6AE-841A040E8488}"/>
-    <hyperlink ref="E103" r:id="rId100" xr:uid="{E3E0EF7D-3CE3-48FA-ACB0-808C777147CE}"/>
-    <hyperlink ref="E104" r:id="rId101" xr:uid="{7B94AC2C-7583-4BDA-B50F-C3C15AE9B1F9}"/>
-    <hyperlink ref="E106" r:id="rId102" xr:uid="{7671F400-F59D-4068-A466-700DE3754BEC}"/>
-    <hyperlink ref="E107" r:id="rId103" xr:uid="{739C4E3E-6463-4F38-867E-B2B3B8070FAA}"/>
-    <hyperlink ref="E108" r:id="rId104" xr:uid="{577615FE-A05D-4749-BF1D-CDD634C2AEAC}"/>
-    <hyperlink ref="E193" r:id="rId105" xr:uid="{2B069703-6E13-4B25-95F1-15627FAEA9FE}"/>
-    <hyperlink ref="E190" r:id="rId106" xr:uid="{A69C1943-AE30-48BF-9643-A2E6FF6850DC}"/>
-    <hyperlink ref="E191" r:id="rId107" xr:uid="{FCDBF8E2-FB4A-46F0-A73A-D9A3B693919E}"/>
-    <hyperlink ref="E192" r:id="rId108" xr:uid="{7E1B296A-C148-49BD-9118-477095A1C4FB}"/>
-    <hyperlink ref="E194" r:id="rId109" xr:uid="{115D5700-800C-4543-933D-98237456025F}"/>
-    <hyperlink ref="E195" r:id="rId110" xr:uid="{275B6DC7-2C84-4E19-9260-4135646AAA15}"/>
-    <hyperlink ref="E196" r:id="rId111" xr:uid="{CBCF4982-BD4D-4A0A-A630-031BC9B5148C}"/>
-    <hyperlink ref="E197" r:id="rId112" xr:uid="{579668B1-2131-4C83-ADB3-6F9E5BBF925D}"/>
-    <hyperlink ref="E198" r:id="rId113" xr:uid="{8E3423B6-137B-4C4B-B12C-D06D41B03D90}"/>
-    <hyperlink ref="E199" r:id="rId114" xr:uid="{5F35DBA7-5130-4EF6-BD37-BCC7BF4EB33A}"/>
-    <hyperlink ref="E200" r:id="rId115" xr:uid="{3D125CC2-35E7-4654-9E2C-C6DCC750CEB8}"/>
-    <hyperlink ref="E201" r:id="rId116" xr:uid="{2346B510-9151-4D92-926A-8DD47775822E}"/>
-    <hyperlink ref="E202" r:id="rId117" xr:uid="{1572F9E4-71EF-44AE-983F-64F9427C9947}"/>
-    <hyperlink ref="E203" r:id="rId118" xr:uid="{25C2AEEC-894F-4508-BB44-4018E6A7A663}"/>
-    <hyperlink ref="E204" r:id="rId119" xr:uid="{A164F64D-623F-4CE9-ABA2-B9258C253145}"/>
-    <hyperlink ref="E111" r:id="rId120" xr:uid="{6F199FF7-ACEC-49A2-9C9E-66790AF0DE66}"/>
-    <hyperlink ref="E112" r:id="rId121" xr:uid="{67C6DF2B-FA67-414D-8025-E4EBDAEF4FAA}"/>
-    <hyperlink ref="E113" r:id="rId122" xr:uid="{F7CE37F3-1FDB-4539-9CA9-D71E8F2DC580}"/>
-    <hyperlink ref="E114" r:id="rId123" xr:uid="{718018A1-B331-437A-BB92-BD7B7D9387F7}"/>
-    <hyperlink ref="E115" r:id="rId124" xr:uid="{687B38E4-5E39-4088-A9C2-3C5E0A2D5BAF}"/>
-    <hyperlink ref="E116" r:id="rId125" xr:uid="{E1790F7A-7419-4D23-B994-7191789C869C}"/>
-    <hyperlink ref="E117" r:id="rId126" xr:uid="{828E0D17-37C8-4426-8453-FC676F90277D}"/>
-    <hyperlink ref="E118" r:id="rId127" xr:uid="{A0C998B7-C622-4516-9DB9-ABDC5C1176ED}"/>
-    <hyperlink ref="E119" r:id="rId128" xr:uid="{5A5BA183-8B30-4DF7-A5B5-A2597304FD53}"/>
-    <hyperlink ref="E120" r:id="rId129" xr:uid="{48D9B166-61B1-4C2C-AFB8-475F39628522}"/>
-    <hyperlink ref="E121" r:id="rId130" xr:uid="{4DFB88E7-8A98-4B29-A985-CD58728D28A7}"/>
-    <hyperlink ref="E122" r:id="rId131" xr:uid="{E1B03E93-B8C5-408E-96B2-6D4BB63C89D8}"/>
-    <hyperlink ref="E123" r:id="rId132" xr:uid="{7CA0A859-4937-4447-9DD9-66DD094E3BA2}"/>
-    <hyperlink ref="E124" r:id="rId133" xr:uid="{34A996D0-72D0-460E-B826-E289DAE314A2}"/>
-    <hyperlink ref="E125" r:id="rId134" xr:uid="{A42A69E2-0648-45F1-9088-BA63A0AEB05E}"/>
-    <hyperlink ref="E126" r:id="rId135" xr:uid="{0F7B2CFE-B04E-4CC7-BA41-FEE1C21A4220}"/>
-    <hyperlink ref="E127" r:id="rId136" xr:uid="{BEF54759-928C-4906-BFAE-6D198F1ADAFE}"/>
-    <hyperlink ref="E128" r:id="rId137" xr:uid="{AAA7C554-8627-4B49-96A5-425B1650342F}"/>
-    <hyperlink ref="E129" r:id="rId138" xr:uid="{A914B10F-56D6-4593-A815-1CAFDCB3C43F}"/>
-    <hyperlink ref="E130" r:id="rId139" xr:uid="{94C166FD-A42E-4971-A136-8C6BDEA330FD}"/>
+    <hyperlink ref="E167" r:id="rId19" xr:uid="{CBC0E5C5-25EE-423F-A1AD-03EB6B1A8664}"/>
+    <hyperlink ref="E168" r:id="rId20" xr:uid="{63A43342-B565-432E-BC05-AB681D6D2DE4}"/>
+    <hyperlink ref="E170" r:id="rId21" location="17.35/41.896072/12.482376 " xr:uid="{78343CC2-7CC5-4EFB-A83B-6A60342272DB}"/>
+    <hyperlink ref="E171" r:id="rId22" location="16.5/42.348011/13.397988/-69/26" xr:uid="{C10E8B1E-6445-4CA2-9999-C9472E7B5C2F}"/>
+    <hyperlink ref="E160" r:id="rId23" xr:uid="{AC75BA5F-4590-4C40-B361-5C94CE67404D}"/>
+    <hyperlink ref="E177" r:id="rId24" xr:uid="{215E72C6-5C9A-4E90-A601-68A98DA0F98C}"/>
+    <hyperlink ref="E178" r:id="rId25" xr:uid="{B9BD6DE1-7FF2-43C6-A696-F9FA54B73C90}"/>
+    <hyperlink ref="E179" r:id="rId26" xr:uid="{50F0B83B-BA4A-4A43-8C79-52825C7CAAAC}"/>
+    <hyperlink ref="E180" r:id="rId27" xr:uid="{383DD85F-D337-49BA-B8B6-ACFCDABC0877}"/>
+    <hyperlink ref="E181" r:id="rId28" xr:uid="{26406005-61FF-40A0-B498-21BA02055859}"/>
+    <hyperlink ref="E182" r:id="rId29" xr:uid="{B150E991-50AC-433D-80E2-9E2794DB0AF0}"/>
+    <hyperlink ref="E183" r:id="rId30" xr:uid="{F714AC7F-0632-48FC-AAEE-20A2D66AA953}"/>
+    <hyperlink ref="E184" r:id="rId31" xr:uid="{CD2CF505-1C72-4E13-A713-DC01EB068700}"/>
+    <hyperlink ref="E185" r:id="rId32" xr:uid="{1622929D-F3B4-48E2-AF31-CB735E4303B2}"/>
+    <hyperlink ref="E186" r:id="rId33" xr:uid="{D0A742C1-DEFB-43CC-B0E0-2B6B850483CB}"/>
+    <hyperlink ref="E187" r:id="rId34" xr:uid="{0094309A-2744-42C2-AB56-E92472E363CF}"/>
+    <hyperlink ref="E188" r:id="rId35" xr:uid="{C24718AF-DCF4-4011-856C-BF56163CADCF}"/>
+    <hyperlink ref="E189" r:id="rId36" xr:uid="{DB4CF26D-6CF7-48C1-98F8-8745DDC04A36}"/>
+    <hyperlink ref="E3" r:id="rId37" xr:uid="{49D32165-E8EC-4464-8883-DE53CAB943E1}"/>
+    <hyperlink ref="E4" r:id="rId38" xr:uid="{44DEF95A-A75D-483E-A06C-FCC9B947E5DE}"/>
+    <hyperlink ref="E5" r:id="rId39" xr:uid="{974B7FD6-F3E0-43F6-BCBD-1254A8D249AC}"/>
+    <hyperlink ref="E10" r:id="rId40" xr:uid="{365FE5B1-3320-4DF3-A7CF-268A1DE6E079}"/>
+    <hyperlink ref="E11" r:id="rId41" xr:uid="{1FDDD609-4249-4AC6-84C3-6B1F35DCB348}"/>
+    <hyperlink ref="E12" r:id="rId42" xr:uid="{7DEDE054-9F12-4F58-82E6-975FEB23E41A}"/>
+    <hyperlink ref="E26" r:id="rId43" xr:uid="{4217E684-DDCE-48F3-AE7B-B572DC57ADF1}"/>
+    <hyperlink ref="E28" r:id="rId44" xr:uid="{76A47469-A3DA-4C3D-9E2D-A4EC64AD4623}"/>
+    <hyperlink ref="E29" r:id="rId45" xr:uid="{A2E25F96-B338-4E65-BA1F-AAC68D0A993B}"/>
+    <hyperlink ref="E30" r:id="rId46" xr:uid="{C42C50D1-881D-42CD-B4D3-3351B0BD42F7}"/>
+    <hyperlink ref="E31" r:id="rId47" xr:uid="{C6ECEA9C-AD22-4A04-A4B9-3820EFD26202}"/>
+    <hyperlink ref="E32" r:id="rId48" xr:uid="{1AEAA9B5-D4AE-44B7-93FC-CB728B1F2209}"/>
+    <hyperlink ref="E33" r:id="rId49" xr:uid="{29EAE7D1-02BE-46E7-9EFF-F19BFB9D9CD3}"/>
+    <hyperlink ref="E34" r:id="rId50" xr:uid="{8B87E118-3424-4FA4-B52E-8787978B36A9}"/>
+    <hyperlink ref="E35" r:id="rId51" xr:uid="{51D1B5AE-8875-4FD5-8E81-7600B9ED65B8}"/>
+    <hyperlink ref="E36" r:id="rId52" xr:uid="{6C998B8E-2614-4242-9039-4848BA15AFB1}"/>
+    <hyperlink ref="E37" r:id="rId53" xr:uid="{F08A1CE1-1D5B-4BDA-834B-4E3B1D15107A}"/>
+    <hyperlink ref="E38" r:id="rId54" xr:uid="{E5CC4433-500F-486C-9D51-AD814D9674E4}"/>
+    <hyperlink ref="E39" r:id="rId55" xr:uid="{B1859688-2829-4FEE-9E92-FA9F3155ACDA}"/>
+    <hyperlink ref="E40" r:id="rId56" xr:uid="{90569A41-0A03-4FDC-869F-84BDCB4E63E6}"/>
+    <hyperlink ref="E41" r:id="rId57" xr:uid="{5BE2009A-1327-4072-B68E-320BA45FE8CF}"/>
+    <hyperlink ref="E43" r:id="rId58" xr:uid="{1A1E876E-16C4-4EED-8AE3-3E5381715F77}"/>
+    <hyperlink ref="E44" r:id="rId59" xr:uid="{363732FD-2ECB-483D-8D8A-9CC0D1B25EE1}"/>
+    <hyperlink ref="E45" r:id="rId60" xr:uid="{46BB2313-8018-40D8-A772-C6997A9430D6}"/>
+    <hyperlink ref="E46" r:id="rId61" xr:uid="{472D6E00-6404-4771-BD4D-525866C2B69B}"/>
+    <hyperlink ref="E47" r:id="rId62" xr:uid="{B496A2AB-9973-4205-B3C7-072A5FF6865D}"/>
+    <hyperlink ref="E48" r:id="rId63" xr:uid="{6D760637-9471-499E-96D4-EF6716A5D6E9}"/>
+    <hyperlink ref="E49" r:id="rId64" xr:uid="{E491B672-CDAA-49DD-BA9C-406FC826C08E}"/>
+    <hyperlink ref="E50" r:id="rId65" xr:uid="{07444256-0117-4F81-8838-C941D99A2BF6}"/>
+    <hyperlink ref="E51" r:id="rId66" xr:uid="{17987393-24EA-4061-81FE-D88C0FCBE80E}"/>
+    <hyperlink ref="E52" r:id="rId67" xr:uid="{70DCC87D-B22B-4EDA-8829-EA339498F308}"/>
+    <hyperlink ref="E53" r:id="rId68" xr:uid="{531559C3-48B1-4311-9B8A-109D118668B9}"/>
+    <hyperlink ref="E65" r:id="rId69" xr:uid="{A1E54A28-E747-48FD-A2CF-6DB0D6FBCFF3}"/>
+    <hyperlink ref="E66" r:id="rId70" xr:uid="{90A60712-CD03-4D15-8385-809834C72182}"/>
+    <hyperlink ref="E68" r:id="rId71" xr:uid="{A130A949-2BBB-48A3-93C3-66E1AB6A6B5A}"/>
+    <hyperlink ref="E70" r:id="rId72" xr:uid="{14D5FC19-57C9-4589-86DA-44A2065E74C6}"/>
+    <hyperlink ref="E71" r:id="rId73" xr:uid="{78DC93BA-B80D-48D7-BCD9-4CED140A1D12}"/>
+    <hyperlink ref="E73" r:id="rId74" xr:uid="{850DBAC6-3111-44FF-BF26-7F9735CE0365}"/>
+    <hyperlink ref="E74" r:id="rId75" xr:uid="{1AAC861C-A244-4B33-89D3-6995E5348ADE}"/>
+    <hyperlink ref="E75" r:id="rId76" location="page-top" xr:uid="{EFC4999B-FC88-4E3A-84C5-49C0D3C35DCB}"/>
+    <hyperlink ref="E76" r:id="rId77" xr:uid="{86D19F26-F914-4666-A301-0F6957241E4A}"/>
+    <hyperlink ref="E78" r:id="rId78" xr:uid="{2EF072F5-0C9B-4E7A-A27A-B34C70B31A8A}"/>
+    <hyperlink ref="E79" r:id="rId79" xr:uid="{27569D59-26B7-43E2-A418-B567C909DAB7}"/>
+    <hyperlink ref="E81" r:id="rId80" xr:uid="{28A8614E-1E16-4074-A547-496F0594E17F}"/>
+    <hyperlink ref="E82" r:id="rId81" xr:uid="{B2468746-17E2-41FE-8754-FCCDF0739371}"/>
+    <hyperlink ref="E83" r:id="rId82" xr:uid="{D1C490CB-BACB-4B80-928C-057D59BD8D38}"/>
+    <hyperlink ref="E84" r:id="rId83" xr:uid="{4C0DB72C-25AB-4427-8232-FF30FD5F4C0E}"/>
+    <hyperlink ref="E85" r:id="rId84" xr:uid="{1BAE776B-D4E4-4945-8848-1DBA21C8880B}"/>
+    <hyperlink ref="E86" r:id="rId85" xr:uid="{515AD6CA-A1C7-4F67-B339-0EC6ABEDED07}"/>
+    <hyperlink ref="E87" r:id="rId86" xr:uid="{BFA473BB-AE9F-4FDA-B832-E251166CB65C}"/>
+    <hyperlink ref="E88" r:id="rId87" xr:uid="{D175EA31-3ED7-4D81-9506-FC1B40ADC7D9}"/>
+    <hyperlink ref="E89" r:id="rId88" xr:uid="{89C4CD7A-B62F-40FF-A5B8-56C9EAA8877E}"/>
+    <hyperlink ref="E90" r:id="rId89" xr:uid="{8515A4C7-A26F-4881-A80E-1CDA7254F192}"/>
+    <hyperlink ref="E91" r:id="rId90" xr:uid="{CA931B24-3EFE-412F-B96C-CF7EF031C87C}"/>
+    <hyperlink ref="E92" r:id="rId91" xr:uid="{FE0D7FA1-52B6-4445-852C-B4206DF0068E}"/>
+    <hyperlink ref="E93" r:id="rId92" xr:uid="{51F16AB9-5819-496A-B085-25BE90D8C5A0}"/>
+    <hyperlink ref="E94" r:id="rId93" xr:uid="{6AAAC3F3-FE6D-4CBB-8B0D-553DD7B0C68B}"/>
+    <hyperlink ref="E96" r:id="rId94" xr:uid="{B7BBBC47-4F53-4700-A4BF-8CDE76E0A4CA}"/>
+    <hyperlink ref="E97" r:id="rId95" xr:uid="{1C022890-28F5-4667-AC45-EA68FC9FA726}"/>
+    <hyperlink ref="E98" r:id="rId96" xr:uid="{07C7F106-6CB6-46FB-B599-52CFB71890C1}"/>
+    <hyperlink ref="E100" r:id="rId97" xr:uid="{85299AB4-DB35-493C-985F-483D0D7C7568}"/>
+    <hyperlink ref="E102" r:id="rId98" xr:uid="{6859EDB8-9CD2-4579-A6AE-841A040E8488}"/>
+    <hyperlink ref="E103" r:id="rId99" xr:uid="{E3E0EF7D-3CE3-48FA-ACB0-808C777147CE}"/>
+    <hyperlink ref="E104" r:id="rId100" xr:uid="{7B94AC2C-7583-4BDA-B50F-C3C15AE9B1F9}"/>
+    <hyperlink ref="E106" r:id="rId101" xr:uid="{7671F400-F59D-4068-A466-700DE3754BEC}"/>
+    <hyperlink ref="E107" r:id="rId102" xr:uid="{739C4E3E-6463-4F38-867E-B2B3B8070FAA}"/>
+    <hyperlink ref="E108" r:id="rId103" xr:uid="{577615FE-A05D-4749-BF1D-CDD634C2AEAC}"/>
+    <hyperlink ref="E193" r:id="rId104" xr:uid="{2B069703-6E13-4B25-95F1-15627FAEA9FE}"/>
+    <hyperlink ref="E190" r:id="rId105" xr:uid="{A69C1943-AE30-48BF-9643-A2E6FF6850DC}"/>
+    <hyperlink ref="E191" r:id="rId106" xr:uid="{FCDBF8E2-FB4A-46F0-A73A-D9A3B693919E}"/>
+    <hyperlink ref="E192" r:id="rId107" xr:uid="{7E1B296A-C148-49BD-9118-477095A1C4FB}"/>
+    <hyperlink ref="E194" r:id="rId108" xr:uid="{115D5700-800C-4543-933D-98237456025F}"/>
+    <hyperlink ref="E195" r:id="rId109" xr:uid="{275B6DC7-2C84-4E19-9260-4135646AAA15}"/>
+    <hyperlink ref="E196" r:id="rId110" xr:uid="{CBCF4982-BD4D-4A0A-A630-031BC9B5148C}"/>
+    <hyperlink ref="E197" r:id="rId111" xr:uid="{579668B1-2131-4C83-ADB3-6F9E5BBF925D}"/>
+    <hyperlink ref="E198" r:id="rId112" xr:uid="{8E3423B6-137B-4C4B-B12C-D06D41B03D90}"/>
+    <hyperlink ref="E199" r:id="rId113" xr:uid="{5F35DBA7-5130-4EF6-BD37-BCC7BF4EB33A}"/>
+    <hyperlink ref="E200" r:id="rId114" xr:uid="{3D125CC2-35E7-4654-9E2C-C6DCC750CEB8}"/>
+    <hyperlink ref="E201" r:id="rId115" xr:uid="{2346B510-9151-4D92-926A-8DD47775822E}"/>
+    <hyperlink ref="E202" r:id="rId116" xr:uid="{1572F9E4-71EF-44AE-983F-64F9427C9947}"/>
+    <hyperlink ref="E203" r:id="rId117" xr:uid="{25C2AEEC-894F-4508-BB44-4018E6A7A663}"/>
+    <hyperlink ref="E204" r:id="rId118" xr:uid="{A164F64D-623F-4CE9-ABA2-B9258C253145}"/>
+    <hyperlink ref="E111" r:id="rId119" xr:uid="{6F199FF7-ACEC-49A2-9C9E-66790AF0DE66}"/>
+    <hyperlink ref="E112" r:id="rId120" xr:uid="{67C6DF2B-FA67-414D-8025-E4EBDAEF4FAA}"/>
+    <hyperlink ref="E113" r:id="rId121" xr:uid="{F7CE37F3-1FDB-4539-9CA9-D71E8F2DC580}"/>
+    <hyperlink ref="E114" r:id="rId122" xr:uid="{718018A1-B331-437A-BB92-BD7B7D9387F7}"/>
+    <hyperlink ref="E115" r:id="rId123" xr:uid="{687B38E4-5E39-4088-A9C2-3C5E0A2D5BAF}"/>
+    <hyperlink ref="E116" r:id="rId124" xr:uid="{E1790F7A-7419-4D23-B994-7191789C869C}"/>
+    <hyperlink ref="E117" r:id="rId125" xr:uid="{828E0D17-37C8-4426-8453-FC676F90277D}"/>
+    <hyperlink ref="E118" r:id="rId126" xr:uid="{A0C998B7-C622-4516-9DB9-ABDC5C1176ED}"/>
+    <hyperlink ref="E119" r:id="rId127" xr:uid="{5A5BA183-8B30-4DF7-A5B5-A2597304FD53}"/>
+    <hyperlink ref="E120" r:id="rId128" xr:uid="{48D9B166-61B1-4C2C-AFB8-475F39628522}"/>
+    <hyperlink ref="E121" r:id="rId129" xr:uid="{4DFB88E7-8A98-4B29-A985-CD58728D28A7}"/>
+    <hyperlink ref="E122" r:id="rId130" xr:uid="{E1B03E93-B8C5-408E-96B2-6D4BB63C89D8}"/>
+    <hyperlink ref="E123" r:id="rId131" xr:uid="{7CA0A859-4937-4447-9DD9-66DD094E3BA2}"/>
+    <hyperlink ref="E124" r:id="rId132" xr:uid="{34A996D0-72D0-460E-B826-E289DAE314A2}"/>
+    <hyperlink ref="E125" r:id="rId133" xr:uid="{A42A69E2-0648-45F1-9088-BA63A0AEB05E}"/>
+    <hyperlink ref="E126" r:id="rId134" xr:uid="{0F7B2CFE-B04E-4CC7-BA41-FEE1C21A4220}"/>
+    <hyperlink ref="E127" r:id="rId135" xr:uid="{BEF54759-928C-4906-BFAE-6D198F1ADAFE}"/>
+    <hyperlink ref="E128" r:id="rId136" xr:uid="{AAA7C554-8627-4B49-96A5-425B1650342F}"/>
+    <hyperlink ref="E129" r:id="rId137" xr:uid="{A914B10F-56D6-4593-A815-1CAFDCB3C43F}"/>
+    <hyperlink ref="E130" r:id="rId138" xr:uid="{94C166FD-A42E-4971-A136-8C6BDEA330FD}"/>
+    <hyperlink ref="E131" r:id="rId139" xr:uid="{F06BDE35-50DC-4814-9F6C-640D8D6413BE}"/>
+    <hyperlink ref="E132" r:id="rId140" xr:uid="{9E30BEEF-C9E0-4999-817F-8C67233AC7C0}"/>
+    <hyperlink ref="E133" r:id="rId141" xr:uid="{6AC2A398-A9B8-4140-BBE5-615648160DD2}"/>
+    <hyperlink ref="E134" r:id="rId142" xr:uid="{FAE0F0D0-45B5-49D6-8934-141C5105AF4B}"/>
+    <hyperlink ref="E135" r:id="rId143" xr:uid="{76F1ACD7-D2F2-43A3-AC16-CBA12480CA6B}"/>
+    <hyperlink ref="E136" r:id="rId144" xr:uid="{61201413-797C-4BC0-9892-65039B31106B}"/>
+    <hyperlink ref="E137" r:id="rId145" xr:uid="{68562713-DB06-4C7A-98B2-91DCCAE5E954}"/>
+    <hyperlink ref="E138" r:id="rId146" xr:uid="{BE1BE9BB-7C22-4879-98BA-93B0640C8192}"/>
+    <hyperlink ref="E139" r:id="rId147" xr:uid="{60B97B8A-291D-4E42-A2AE-A1A3545068A1}"/>
+    <hyperlink ref="E140" r:id="rId148" xr:uid="{E1705F5E-1CD6-48A6-9DF4-7F5F620722F9}"/>
+    <hyperlink ref="E141" r:id="rId149" xr:uid="{CDC470C7-6414-48CB-9F52-6EA1515F0E40}"/>
+    <hyperlink ref="E142" r:id="rId150" xr:uid="{E9266A47-88E0-4E07-87AD-3350AE15DB61}"/>
+    <hyperlink ref="E143" r:id="rId151" xr:uid="{E2C19DEA-367C-4F8D-9EF0-4933875018E6}"/>
+    <hyperlink ref="E144" r:id="rId152" xr:uid="{C16317A4-4F72-4755-AC08-C84701C36FFA}"/>
+    <hyperlink ref="E145" r:id="rId153" xr:uid="{66DE4044-CB7A-4472-B96C-BF4D58D3C787}"/>
+    <hyperlink ref="E146" r:id="rId154" xr:uid="{877BEC23-4217-4409-9D9D-F41A394A7593}"/>
+    <hyperlink ref="E147" r:id="rId155" xr:uid="{6E4986BE-F84F-431B-9E82-533765D7F588}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId140"/>
+    <tablePart r:id="rId156"/>
   </tableParts>
 </worksheet>
 </file>
